--- a/LTT/bin/Debug/2022년도 1학기 강의시간표.xlsx
+++ b/LTT/bin/Debug/2022년도 1학기 강의시간표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b519e6645e706bc/개발/LTT/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_0CCC3DBF2E70530EDE75372E873A3997D7FBEC92" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B1932A5-3DEC-4B58-BE0E-E833275FFA97}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_0CCC3DBF2E70530EDE75372E873A3997D7FBEC92" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B577BD3-D253-4179-A24E-A8C6E0219125}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2140" windowWidth="18720" windowHeight="11740" tabRatio="194" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="326">
   <si>
     <t>졸업연구및진로1</t>
   </si>
@@ -1002,6 +1002,10 @@
   </si>
   <si>
     <t>센B201,센B209</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지능기전공학부</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1405,8 +1409,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T396"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="56" zoomScaleNormal="56" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7224,7 +7228,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>233</v>

--- a/LTT/bin/Debug/2022년도 1학기 강의시간표.xlsx
+++ b/LTT/bin/Debug/2022년도 1학기 강의시간표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b519e6645e706bc/개발/LTT/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_0CCC3DBF2E70530EDE75372E873A3997D7FBEC92" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B577BD3-D253-4179-A24E-A8C6E0219125}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_0CCC3DBF2E70530EDE75372E873A3997D7FBEC92" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD3175CB-B413-4DDE-9942-683CD422C0DF}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2140" windowWidth="18720" windowHeight="11740" tabRatio="194" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="194" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="전체강의" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="327">
   <si>
     <t>졸업연구및진로1</t>
   </si>
@@ -1006,6 +1006,10 @@
   </si>
   <si>
     <t>지능기전공학부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화 목 09:00~10:30</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1409,23 +1413,23 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="56" zoomScaleNormal="56" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="I166" sqref="I166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.08203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="23.08203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="4"/>
-    <col min="9" max="9" width="32.1640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="23.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="4"/>
+    <col min="9" max="9" width="32.125" style="4" customWidth="1"/>
     <col min="10" max="10" width="15" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.83203125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="4"/>
+    <col min="11" max="11" width="20.875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="8.625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>317</v>
       </c>
@@ -1463,7 +1467,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1501,7 +1505,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1539,7 +1543,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1577,7 +1581,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1615,7 +1619,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1653,7 +1657,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1691,7 +1695,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1729,7 +1733,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1767,7 +1771,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1805,7 +1809,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1843,7 +1847,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1881,7 +1885,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1919,7 +1923,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1957,7 +1961,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1995,7 +1999,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2033,7 +2037,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2071,7 +2075,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2109,7 +2113,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2147,7 +2151,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2185,7 +2189,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2223,7 +2227,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2261,7 +2265,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2299,7 +2303,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2337,7 +2341,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2375,7 +2379,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2413,7 +2417,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2451,7 +2455,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2489,7 +2493,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2527,7 +2531,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2565,7 +2569,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2603,7 +2607,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2641,7 +2645,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2679,7 +2683,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2717,7 +2721,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2755,7 +2759,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2793,7 +2797,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2831,7 +2835,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2869,7 +2873,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2907,7 +2911,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2945,7 +2949,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2983,7 +2987,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3021,7 +3025,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -3059,7 +3063,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -3097,7 +3101,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -3135,7 +3139,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -3173,7 +3177,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -3211,7 +3215,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -3249,7 +3253,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -3283,7 +3287,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -3321,7 +3325,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -3359,7 +3363,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -3397,7 +3401,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -3435,7 +3439,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -3473,7 +3477,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -3511,7 +3515,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -3549,7 +3553,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -3587,7 +3591,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3625,7 +3629,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -3663,7 +3667,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -3701,7 +3705,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -3739,7 +3743,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -3777,7 +3781,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -3815,7 +3819,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -3853,7 +3857,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -3891,7 +3895,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -3929,7 +3933,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -3967,7 +3971,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -4005,7 +4009,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -4043,7 +4047,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -4081,7 +4085,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -4119,7 +4123,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -4157,7 +4161,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -4195,7 +4199,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -4233,7 +4237,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -4271,7 +4275,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -4309,7 +4313,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -4347,7 +4351,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -4385,7 +4389,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -4423,7 +4427,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -4461,7 +4465,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -4499,7 +4503,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -4535,7 +4539,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -4571,7 +4575,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -4607,7 +4611,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -4643,7 +4647,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -4679,7 +4683,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -4715,7 +4719,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -4753,7 +4757,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -4791,7 +4795,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -4829,7 +4833,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -4867,7 +4871,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -4905,7 +4909,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -4943,7 +4947,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -4981,7 +4985,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -5019,7 +5023,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -5057,7 +5061,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -5095,7 +5099,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -5133,7 +5137,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -5171,7 +5175,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -5209,7 +5213,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -5247,7 +5251,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -5285,7 +5289,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -5323,7 +5327,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -5361,7 +5365,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -5399,7 +5403,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -5437,7 +5441,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -5475,7 +5479,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -5513,7 +5517,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -5551,7 +5555,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -5589,7 +5593,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -5627,7 +5631,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -5665,7 +5669,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -5703,7 +5707,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -5741,7 +5745,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -5779,7 +5783,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -5817,7 +5821,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -5855,7 +5859,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -5893,7 +5897,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -5931,7 +5935,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -5969,7 +5973,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -6007,7 +6011,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -6045,7 +6049,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -6083,7 +6087,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -6121,7 +6125,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -6159,7 +6163,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -6197,7 +6201,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -6235,7 +6239,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -6273,7 +6277,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -6311,7 +6315,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -6349,7 +6353,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -6387,7 +6391,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -6425,7 +6429,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -6463,7 +6467,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -6501,7 +6505,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -6539,7 +6543,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -6577,7 +6581,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -6615,7 +6619,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -6653,7 +6657,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -6691,7 +6695,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -6729,7 +6733,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -6767,7 +6771,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -6805,7 +6809,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -6843,7 +6847,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -6881,7 +6885,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -6919,7 +6923,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -6957,7 +6961,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -6995,7 +6999,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -7033,7 +7037,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -7071,7 +7075,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -7109,7 +7113,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -7147,7 +7151,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -7185,7 +7189,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -7223,7 +7227,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -7261,7 +7265,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -7299,7 +7303,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -7337,7 +7341,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -7375,7 +7379,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -7413,7 +7417,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -7451,7 +7455,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -7489,7 +7493,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -7527,7 +7531,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -7565,7 +7569,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -7603,7 +7607,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -7641,7 +7645,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -7679,7 +7683,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -7705,7 +7709,7 @@
         <v>92</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>12</v>
+        <v>326</v>
       </c>
       <c r="J166" s="5" t="s">
         <v>303</v>
@@ -7717,7 +7721,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -7755,7 +7759,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -7793,7 +7797,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -7831,7 +7835,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -7869,7 +7873,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -7907,7 +7911,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -7953,7 +7957,7 @@
       <c r="S172" s="6"/>
       <c r="T172" s="6"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -7999,7 +8003,7 @@
       <c r="S173" s="6"/>
       <c r="T173" s="6"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -8045,7 +8049,7 @@
       <c r="S174" s="6"/>
       <c r="T174" s="6"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -8091,7 +8095,7 @@
       <c r="S175" s="6"/>
       <c r="T175" s="6"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -8137,7 +8141,7 @@
       <c r="S176" s="6"/>
       <c r="T176" s="6"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -8183,7 +8187,7 @@
       <c r="S177" s="6"/>
       <c r="T177" s="6"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -8229,7 +8233,7 @@
       <c r="S178" s="6"/>
       <c r="T178" s="6"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -8275,7 +8279,7 @@
       <c r="S179" s="6"/>
       <c r="T179" s="6"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -8321,7 +8325,7 @@
       <c r="S180" s="6"/>
       <c r="T180" s="6"/>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -8367,7 +8371,7 @@
       <c r="S181" s="6"/>
       <c r="T181" s="6"/>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -8413,7 +8417,7 @@
       <c r="S182" s="6"/>
       <c r="T182" s="6"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -8459,7 +8463,7 @@
       <c r="S183" s="6"/>
       <c r="T183" s="6"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -8503,7 +8507,7 @@
       <c r="S184" s="6"/>
       <c r="T184" s="6"/>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -8547,7 +8551,7 @@
       <c r="S185" s="6"/>
       <c r="T185" s="6"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="5"/>
       <c r="C186" s="6"/>
@@ -8569,7 +8573,7 @@
       <c r="S186" s="6"/>
       <c r="T186" s="6"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="5"/>
       <c r="C187" s="6"/>
@@ -8591,7 +8595,7 @@
       <c r="S187" s="6"/>
       <c r="T187" s="6"/>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="5"/>
       <c r="C188" s="6"/>
@@ -8613,7 +8617,7 @@
       <c r="S188" s="6"/>
       <c r="T188" s="6"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
       <c r="B189" s="5"/>
       <c r="C189" s="6"/>
@@ -8635,7 +8639,7 @@
       <c r="S189" s="6"/>
       <c r="T189" s="6"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="5"/>
       <c r="C190" s="6"/>
@@ -8657,7 +8661,7 @@
       <c r="S190" s="6"/>
       <c r="T190" s="6"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="5"/>
       <c r="C191" s="6"/>
@@ -8679,7 +8683,7 @@
       <c r="S191" s="6"/>
       <c r="T191" s="6"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="5"/>
       <c r="C192" s="6"/>
@@ -8701,7 +8705,7 @@
       <c r="S192" s="6"/>
       <c r="T192" s="6"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="5"/>
       <c r="C193" s="6"/>
@@ -8723,7 +8727,7 @@
       <c r="S193" s="6"/>
       <c r="T193" s="6"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="5"/>
       <c r="C194" s="6"/>
@@ -8745,7 +8749,7 @@
       <c r="S194" s="6"/>
       <c r="T194" s="6"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="5"/>
       <c r="C195" s="6"/>
@@ -8767,7 +8771,7 @@
       <c r="S195" s="6"/>
       <c r="T195" s="6"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="5"/>
       <c r="C196" s="6"/>
@@ -8789,7 +8793,7 @@
       <c r="S196" s="6"/>
       <c r="T196" s="6"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="5"/>
       <c r="C197" s="6"/>
@@ -8811,7 +8815,7 @@
       <c r="S197" s="6"/>
       <c r="T197" s="6"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="5"/>
       <c r="C198" s="6"/>
@@ -8833,7 +8837,7 @@
       <c r="S198" s="6"/>
       <c r="T198" s="6"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="5"/>
       <c r="C199" s="6"/>
@@ -8855,7 +8859,7 @@
       <c r="S199" s="6"/>
       <c r="T199" s="6"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="5"/>
       <c r="C200" s="6"/>
@@ -8877,7 +8881,7 @@
       <c r="S200" s="6"/>
       <c r="T200" s="6"/>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
       <c r="B201" s="5"/>
       <c r="C201" s="6"/>
@@ -8899,7 +8903,7 @@
       <c r="S201" s="6"/>
       <c r="T201" s="6"/>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
       <c r="B202" s="5"/>
       <c r="C202" s="6"/>
@@ -8921,7 +8925,7 @@
       <c r="S202" s="6"/>
       <c r="T202" s="6"/>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
       <c r="B203" s="5"/>
       <c r="C203" s="6"/>
@@ -8943,7 +8947,7 @@
       <c r="S203" s="6"/>
       <c r="T203" s="6"/>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="B204" s="5"/>
       <c r="C204" s="6"/>
@@ -8965,7 +8969,7 @@
       <c r="S204" s="6"/>
       <c r="T204" s="6"/>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
       <c r="B205" s="5"/>
       <c r="C205" s="6"/>
@@ -8987,7 +8991,7 @@
       <c r="S205" s="6"/>
       <c r="T205" s="6"/>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="5"/>
       <c r="C206" s="6"/>
@@ -9009,7 +9013,7 @@
       <c r="S206" s="6"/>
       <c r="T206" s="6"/>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
       <c r="B207" s="5"/>
       <c r="C207" s="6"/>
@@ -9031,7 +9035,7 @@
       <c r="S207" s="6"/>
       <c r="T207" s="6"/>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
       <c r="B208" s="5"/>
       <c r="C208" s="6"/>
@@ -9053,7 +9057,7 @@
       <c r="S208" s="6"/>
       <c r="T208" s="6"/>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
       <c r="B209" s="5"/>
       <c r="C209" s="6"/>
@@ -9075,7 +9079,7 @@
       <c r="S209" s="6"/>
       <c r="T209" s="6"/>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
       <c r="B210" s="5"/>
       <c r="C210" s="6"/>
@@ -9097,7 +9101,7 @@
       <c r="S210" s="6"/>
       <c r="T210" s="6"/>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
       <c r="B211" s="5"/>
       <c r="C211" s="6"/>
@@ -9119,7 +9123,7 @@
       <c r="S211" s="6"/>
       <c r="T211" s="6"/>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
       <c r="B212" s="5"/>
       <c r="C212" s="6"/>
@@ -9141,7 +9145,7 @@
       <c r="S212" s="6"/>
       <c r="T212" s="6"/>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
       <c r="B213" s="5"/>
       <c r="C213" s="6"/>
@@ -9163,7 +9167,7 @@
       <c r="S213" s="6"/>
       <c r="T213" s="6"/>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
       <c r="B214" s="5"/>
       <c r="C214" s="6"/>
@@ -9185,7 +9189,7 @@
       <c r="S214" s="6"/>
       <c r="T214" s="6"/>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
       <c r="B215" s="5"/>
       <c r="C215" s="6"/>
@@ -9207,7 +9211,7 @@
       <c r="S215" s="6"/>
       <c r="T215" s="6"/>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
       <c r="B216" s="5"/>
       <c r="C216" s="6"/>
@@ -9229,7 +9233,7 @@
       <c r="S216" s="6"/>
       <c r="T216" s="6"/>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B217" s="5"/>
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
@@ -9250,7 +9254,7 @@
       <c r="S217" s="6"/>
       <c r="T217" s="6"/>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B218" s="5"/>
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
@@ -9271,7 +9275,7 @@
       <c r="S218" s="6"/>
       <c r="T218" s="6"/>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B219" s="5"/>
       <c r="C219" s="6"/>
       <c r="D219" s="6"/>
@@ -9292,7 +9296,7 @@
       <c r="S219" s="6"/>
       <c r="T219" s="6"/>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B220" s="5"/>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
@@ -9313,7 +9317,7 @@
       <c r="S220" s="6"/>
       <c r="T220" s="6"/>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B221" s="5"/>
       <c r="C221" s="6"/>
       <c r="D221" s="6"/>
@@ -9334,7 +9338,7 @@
       <c r="S221" s="6"/>
       <c r="T221" s="6"/>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B222" s="5"/>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
@@ -9355,7 +9359,7 @@
       <c r="S222" s="6"/>
       <c r="T222" s="6"/>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B223" s="5"/>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
@@ -9376,7 +9380,7 @@
       <c r="S223" s="6"/>
       <c r="T223" s="6"/>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B224" s="5"/>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
@@ -9397,7 +9401,7 @@
       <c r="S224" s="6"/>
       <c r="T224" s="6"/>
     </row>
-    <row r="225" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="225" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B225" s="5"/>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
@@ -9418,7 +9422,7 @@
       <c r="S225" s="6"/>
       <c r="T225" s="6"/>
     </row>
-    <row r="226" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="226" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B226" s="5"/>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
@@ -9439,7 +9443,7 @@
       <c r="S226" s="6"/>
       <c r="T226" s="6"/>
     </row>
-    <row r="227" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="227" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B227" s="5"/>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
@@ -9460,7 +9464,7 @@
       <c r="S227" s="6"/>
       <c r="T227" s="6"/>
     </row>
-    <row r="228" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="228" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B228" s="5"/>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
@@ -9481,7 +9485,7 @@
       <c r="S228" s="6"/>
       <c r="T228" s="6"/>
     </row>
-    <row r="229" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="229" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B229" s="5"/>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
@@ -9502,7 +9506,7 @@
       <c r="S229" s="6"/>
       <c r="T229" s="6"/>
     </row>
-    <row r="230" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="230" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B230" s="5"/>
       <c r="C230" s="6"/>
       <c r="D230" s="6"/>
@@ -9523,7 +9527,7 @@
       <c r="S230" s="6"/>
       <c r="T230" s="6"/>
     </row>
-    <row r="231" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="231" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B231" s="5"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
@@ -9544,7 +9548,7 @@
       <c r="S231" s="6"/>
       <c r="T231" s="6"/>
     </row>
-    <row r="232" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="232" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B232" s="5"/>
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
@@ -9565,7 +9569,7 @@
       <c r="S232" s="6"/>
       <c r="T232" s="6"/>
     </row>
-    <row r="233" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="233" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B233" s="5"/>
       <c r="C233" s="6"/>
       <c r="D233" s="6"/>
@@ -9586,7 +9590,7 @@
       <c r="S233" s="6"/>
       <c r="T233" s="6"/>
     </row>
-    <row r="234" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="234" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B234" s="5"/>
       <c r="C234" s="6"/>
       <c r="D234" s="6"/>
@@ -9607,7 +9611,7 @@
       <c r="S234" s="6"/>
       <c r="T234" s="6"/>
     </row>
-    <row r="235" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="235" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B235" s="5"/>
       <c r="C235" s="6"/>
       <c r="D235" s="6"/>
@@ -9628,7 +9632,7 @@
       <c r="S235" s="6"/>
       <c r="T235" s="6"/>
     </row>
-    <row r="236" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="236" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B236" s="5"/>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
@@ -9649,7 +9653,7 @@
       <c r="S236" s="6"/>
       <c r="T236" s="6"/>
     </row>
-    <row r="237" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="237" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B237" s="5"/>
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
@@ -9670,7 +9674,7 @@
       <c r="S237" s="6"/>
       <c r="T237" s="6"/>
     </row>
-    <row r="238" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="238" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B238" s="5"/>
       <c r="C238" s="6"/>
       <c r="D238" s="6"/>
@@ -9691,7 +9695,7 @@
       <c r="S238" s="6"/>
       <c r="T238" s="6"/>
     </row>
-    <row r="239" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="239" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B239" s="5"/>
       <c r="C239" s="6"/>
       <c r="D239" s="6"/>
@@ -9712,7 +9716,7 @@
       <c r="S239" s="6"/>
       <c r="T239" s="6"/>
     </row>
-    <row r="240" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="240" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B240" s="5"/>
       <c r="C240" s="6"/>
       <c r="D240" s="6"/>
@@ -9733,7 +9737,7 @@
       <c r="S240" s="6"/>
       <c r="T240" s="6"/>
     </row>
-    <row r="241" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="241" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B241" s="5"/>
       <c r="C241" s="6"/>
       <c r="D241" s="6"/>
@@ -9754,7 +9758,7 @@
       <c r="S241" s="6"/>
       <c r="T241" s="6"/>
     </row>
-    <row r="242" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="242" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B242" s="5"/>
       <c r="C242" s="6"/>
       <c r="D242" s="6"/>
@@ -9775,7 +9779,7 @@
       <c r="S242" s="6"/>
       <c r="T242" s="6"/>
     </row>
-    <row r="243" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="243" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B243" s="5"/>
       <c r="C243" s="6"/>
       <c r="D243" s="6"/>
@@ -9796,7 +9800,7 @@
       <c r="S243" s="6"/>
       <c r="T243" s="6"/>
     </row>
-    <row r="244" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="244" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B244" s="5"/>
       <c r="C244" s="6"/>
       <c r="D244" s="6"/>
@@ -9817,7 +9821,7 @@
       <c r="S244" s="6"/>
       <c r="T244" s="6"/>
     </row>
-    <row r="245" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="245" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B245" s="5"/>
       <c r="C245" s="6"/>
       <c r="D245" s="6"/>
@@ -9838,7 +9842,7 @@
       <c r="S245" s="6"/>
       <c r="T245" s="6"/>
     </row>
-    <row r="246" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="246" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B246" s="5"/>
       <c r="C246" s="6"/>
       <c r="D246" s="6"/>
@@ -9859,7 +9863,7 @@
       <c r="S246" s="6"/>
       <c r="T246" s="6"/>
     </row>
-    <row r="247" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="247" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B247" s="5"/>
       <c r="C247" s="6"/>
       <c r="D247" s="6"/>
@@ -9880,7 +9884,7 @@
       <c r="S247" s="6"/>
       <c r="T247" s="6"/>
     </row>
-    <row r="248" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="248" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B248" s="5"/>
       <c r="C248" s="6"/>
       <c r="D248" s="6"/>
@@ -9901,7 +9905,7 @@
       <c r="S248" s="6"/>
       <c r="T248" s="6"/>
     </row>
-    <row r="249" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="249" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B249" s="5"/>
       <c r="C249" s="6"/>
       <c r="D249" s="6"/>
@@ -9922,7 +9926,7 @@
       <c r="S249" s="6"/>
       <c r="T249" s="6"/>
     </row>
-    <row r="250" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="250" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B250" s="5"/>
       <c r="C250" s="6"/>
       <c r="D250" s="6"/>
@@ -9943,7 +9947,7 @@
       <c r="S250" s="6"/>
       <c r="T250" s="6"/>
     </row>
-    <row r="251" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="251" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B251" s="5"/>
       <c r="C251" s="6"/>
       <c r="D251" s="6"/>
@@ -9964,7 +9968,7 @@
       <c r="S251" s="6"/>
       <c r="T251" s="6"/>
     </row>
-    <row r="252" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="252" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B252" s="5"/>
       <c r="C252" s="6"/>
       <c r="D252" s="6"/>
@@ -9985,7 +9989,7 @@
       <c r="S252" s="6"/>
       <c r="T252" s="6"/>
     </row>
-    <row r="253" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="253" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B253" s="5"/>
       <c r="C253" s="6"/>
       <c r="D253" s="6"/>
@@ -10006,7 +10010,7 @@
       <c r="S253" s="6"/>
       <c r="T253" s="6"/>
     </row>
-    <row r="254" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="254" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B254" s="5"/>
       <c r="C254" s="6"/>
       <c r="D254" s="6"/>
@@ -10027,7 +10031,7 @@
       <c r="S254" s="6"/>
       <c r="T254" s="6"/>
     </row>
-    <row r="255" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="255" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B255" s="5"/>
       <c r="C255" s="6"/>
       <c r="D255" s="6"/>
@@ -10048,7 +10052,7 @@
       <c r="S255" s="6"/>
       <c r="T255" s="6"/>
     </row>
-    <row r="256" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="256" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B256" s="5"/>
       <c r="C256" s="6"/>
       <c r="D256" s="6"/>
@@ -10069,7 +10073,7 @@
       <c r="S256" s="6"/>
       <c r="T256" s="6"/>
     </row>
-    <row r="257" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="257" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B257" s="5"/>
       <c r="C257" s="6"/>
       <c r="D257" s="6"/>
@@ -10090,7 +10094,7 @@
       <c r="S257" s="6"/>
       <c r="T257" s="6"/>
     </row>
-    <row r="258" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="258" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B258" s="5"/>
       <c r="C258" s="6"/>
       <c r="D258" s="6"/>
@@ -10111,7 +10115,7 @@
       <c r="S258" s="6"/>
       <c r="T258" s="6"/>
     </row>
-    <row r="259" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="259" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B259" s="5"/>
       <c r="C259" s="6"/>
       <c r="D259" s="6"/>
@@ -10132,7 +10136,7 @@
       <c r="S259" s="6"/>
       <c r="T259" s="6"/>
     </row>
-    <row r="260" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="260" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B260" s="5"/>
       <c r="C260" s="6"/>
       <c r="D260" s="6"/>
@@ -10153,7 +10157,7 @@
       <c r="S260" s="6"/>
       <c r="T260" s="6"/>
     </row>
-    <row r="261" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="261" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B261" s="5"/>
       <c r="C261" s="6"/>
       <c r="D261" s="6"/>
@@ -10174,7 +10178,7 @@
       <c r="S261" s="6"/>
       <c r="T261" s="6"/>
     </row>
-    <row r="262" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="262" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B262" s="5"/>
       <c r="C262" s="6"/>
       <c r="D262" s="6"/>
@@ -10195,7 +10199,7 @@
       <c r="S262" s="6"/>
       <c r="T262" s="6"/>
     </row>
-    <row r="263" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="263" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B263" s="5"/>
       <c r="C263" s="6"/>
       <c r="D263" s="6"/>
@@ -10216,7 +10220,7 @@
       <c r="S263" s="6"/>
       <c r="T263" s="6"/>
     </row>
-    <row r="264" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="264" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B264" s="5"/>
       <c r="C264" s="6"/>
       <c r="D264" s="6"/>
@@ -10237,7 +10241,7 @@
       <c r="S264" s="6"/>
       <c r="T264" s="6"/>
     </row>
-    <row r="265" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="265" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B265" s="5"/>
       <c r="C265" s="6"/>
       <c r="D265" s="6"/>
@@ -10258,7 +10262,7 @@
       <c r="S265" s="6"/>
       <c r="T265" s="6"/>
     </row>
-    <row r="266" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="266" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B266" s="5"/>
       <c r="C266" s="6"/>
       <c r="D266" s="6"/>
@@ -10279,7 +10283,7 @@
       <c r="S266" s="6"/>
       <c r="T266" s="6"/>
     </row>
-    <row r="267" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="267" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B267" s="5"/>
       <c r="C267" s="6"/>
       <c r="D267" s="6"/>
@@ -10300,7 +10304,7 @@
       <c r="S267" s="6"/>
       <c r="T267" s="6"/>
     </row>
-    <row r="268" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="268" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B268" s="5"/>
       <c r="C268" s="6"/>
       <c r="D268" s="6"/>
@@ -10321,7 +10325,7 @@
       <c r="S268" s="6"/>
       <c r="T268" s="6"/>
     </row>
-    <row r="269" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="269" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B269" s="5"/>
       <c r="C269" s="6"/>
       <c r="D269" s="6"/>
@@ -10342,7 +10346,7 @@
       <c r="S269" s="6"/>
       <c r="T269" s="6"/>
     </row>
-    <row r="270" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="270" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B270" s="5"/>
       <c r="C270" s="6"/>
       <c r="D270" s="6"/>
@@ -10363,7 +10367,7 @@
       <c r="S270" s="6"/>
       <c r="T270" s="6"/>
     </row>
-    <row r="271" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="271" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B271" s="5"/>
       <c r="C271" s="6"/>
       <c r="D271" s="6"/>
@@ -10384,7 +10388,7 @@
       <c r="S271" s="6"/>
       <c r="T271" s="6"/>
     </row>
-    <row r="272" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="272" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B272" s="5"/>
       <c r="C272" s="6"/>
       <c r="D272" s="6"/>
@@ -10405,7 +10409,7 @@
       <c r="S272" s="6"/>
       <c r="T272" s="6"/>
     </row>
-    <row r="273" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="273" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B273" s="5"/>
       <c r="C273" s="6"/>
       <c r="D273" s="6"/>
@@ -10426,7 +10430,7 @@
       <c r="S273" s="6"/>
       <c r="T273" s="6"/>
     </row>
-    <row r="274" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="274" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B274" s="5"/>
       <c r="C274" s="6"/>
       <c r="D274" s="6"/>
@@ -10447,7 +10451,7 @@
       <c r="S274" s="6"/>
       <c r="T274" s="6"/>
     </row>
-    <row r="275" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="275" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B275" s="5"/>
       <c r="C275" s="6"/>
       <c r="D275" s="6"/>
@@ -10468,7 +10472,7 @@
       <c r="S275" s="6"/>
       <c r="T275" s="6"/>
     </row>
-    <row r="276" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="276" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B276" s="5"/>
       <c r="C276" s="6"/>
       <c r="D276" s="6"/>
@@ -10489,7 +10493,7 @@
       <c r="S276" s="6"/>
       <c r="T276" s="6"/>
     </row>
-    <row r="277" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="277" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B277" s="5"/>
       <c r="C277" s="6"/>
       <c r="D277" s="6"/>
@@ -10510,7 +10514,7 @@
       <c r="S277" s="6"/>
       <c r="T277" s="6"/>
     </row>
-    <row r="278" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="278" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B278" s="5"/>
       <c r="C278" s="6"/>
       <c r="D278" s="6"/>
@@ -10531,7 +10535,7 @@
       <c r="S278" s="6"/>
       <c r="T278" s="6"/>
     </row>
-    <row r="279" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="279" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B279" s="5"/>
       <c r="C279" s="6"/>
       <c r="D279" s="6"/>
@@ -10552,7 +10556,7 @@
       <c r="S279" s="6"/>
       <c r="T279" s="6"/>
     </row>
-    <row r="280" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="280" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B280" s="5"/>
       <c r="C280" s="6"/>
       <c r="D280" s="6"/>
@@ -10573,7 +10577,7 @@
       <c r="S280" s="6"/>
       <c r="T280" s="6"/>
     </row>
-    <row r="281" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="281" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B281" s="5"/>
       <c r="C281" s="6"/>
       <c r="D281" s="6"/>
@@ -10594,7 +10598,7 @@
       <c r="S281" s="6"/>
       <c r="T281" s="6"/>
     </row>
-    <row r="282" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="282" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B282" s="5"/>
       <c r="C282" s="6"/>
       <c r="D282" s="6"/>
@@ -10615,7 +10619,7 @@
       <c r="S282" s="6"/>
       <c r="T282" s="6"/>
     </row>
-    <row r="283" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="283" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B283" s="5"/>
       <c r="C283" s="6"/>
       <c r="D283" s="6"/>
@@ -10636,7 +10640,7 @@
       <c r="S283" s="6"/>
       <c r="T283" s="6"/>
     </row>
-    <row r="284" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="284" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B284" s="5"/>
       <c r="C284" s="6"/>
       <c r="D284" s="6"/>
@@ -10657,7 +10661,7 @@
       <c r="S284" s="6"/>
       <c r="T284" s="6"/>
     </row>
-    <row r="285" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="285" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B285" s="5"/>
       <c r="C285" s="6"/>
       <c r="D285" s="6"/>
@@ -10678,7 +10682,7 @@
       <c r="S285" s="6"/>
       <c r="T285" s="6"/>
     </row>
-    <row r="286" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="286" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B286" s="5"/>
       <c r="C286" s="6"/>
       <c r="D286" s="6"/>
@@ -10699,7 +10703,7 @@
       <c r="S286" s="6"/>
       <c r="T286" s="6"/>
     </row>
-    <row r="287" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="287" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B287" s="5"/>
       <c r="C287" s="6"/>
       <c r="D287" s="6"/>
@@ -10720,7 +10724,7 @@
       <c r="S287" s="6"/>
       <c r="T287" s="6"/>
     </row>
-    <row r="288" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="288" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B288" s="5"/>
       <c r="C288" s="6"/>
       <c r="D288" s="6"/>
@@ -10741,7 +10745,7 @@
       <c r="S288" s="6"/>
       <c r="T288" s="6"/>
     </row>
-    <row r="289" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="289" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B289" s="5"/>
       <c r="C289" s="6"/>
       <c r="D289" s="6"/>
@@ -10762,7 +10766,7 @@
       <c r="S289" s="6"/>
       <c r="T289" s="6"/>
     </row>
-    <row r="290" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="290" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B290" s="5"/>
       <c r="C290" s="6"/>
       <c r="D290" s="6"/>
@@ -10783,7 +10787,7 @@
       <c r="S290" s="6"/>
       <c r="T290" s="6"/>
     </row>
-    <row r="291" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="291" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B291" s="5"/>
       <c r="C291" s="6"/>
       <c r="D291" s="6"/>
@@ -10804,7 +10808,7 @@
       <c r="S291" s="6"/>
       <c r="T291" s="6"/>
     </row>
-    <row r="292" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="292" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B292" s="5"/>
       <c r="C292" s="6"/>
       <c r="D292" s="6"/>
@@ -10825,7 +10829,7 @@
       <c r="S292" s="6"/>
       <c r="T292" s="6"/>
     </row>
-    <row r="293" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="293" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B293" s="5"/>
       <c r="C293" s="6"/>
       <c r="D293" s="6"/>
@@ -10846,7 +10850,7 @@
       <c r="S293" s="6"/>
       <c r="T293" s="6"/>
     </row>
-    <row r="294" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="294" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B294" s="5"/>
       <c r="C294" s="6"/>
       <c r="D294" s="6"/>
@@ -10867,7 +10871,7 @@
       <c r="S294" s="6"/>
       <c r="T294" s="6"/>
     </row>
-    <row r="295" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="295" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B295" s="5"/>
       <c r="C295" s="6"/>
       <c r="D295" s="6"/>
@@ -10888,7 +10892,7 @@
       <c r="S295" s="6"/>
       <c r="T295" s="6"/>
     </row>
-    <row r="296" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="296" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B296" s="5"/>
       <c r="C296" s="6"/>
       <c r="D296" s="6"/>
@@ -10909,7 +10913,7 @@
       <c r="S296" s="6"/>
       <c r="T296" s="6"/>
     </row>
-    <row r="297" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="297" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B297" s="5"/>
       <c r="C297" s="6"/>
       <c r="D297" s="6"/>
@@ -10930,7 +10934,7 @@
       <c r="S297" s="6"/>
       <c r="T297" s="6"/>
     </row>
-    <row r="298" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="298" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B298" s="5"/>
       <c r="C298" s="6"/>
       <c r="D298" s="6"/>
@@ -10951,7 +10955,7 @@
       <c r="S298" s="6"/>
       <c r="T298" s="6"/>
     </row>
-    <row r="299" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="299" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B299" s="5"/>
       <c r="C299" s="6"/>
       <c r="D299" s="6"/>
@@ -10972,7 +10976,7 @@
       <c r="S299" s="6"/>
       <c r="T299" s="6"/>
     </row>
-    <row r="300" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="300" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B300" s="5"/>
       <c r="C300" s="6"/>
       <c r="D300" s="6"/>
@@ -10993,7 +10997,7 @@
       <c r="S300" s="6"/>
       <c r="T300" s="6"/>
     </row>
-    <row r="301" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="301" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B301" s="5"/>
       <c r="C301" s="6"/>
       <c r="D301" s="6"/>
@@ -11014,7 +11018,7 @@
       <c r="S301" s="6"/>
       <c r="T301" s="6"/>
     </row>
-    <row r="302" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="302" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B302" s="5"/>
       <c r="C302" s="6"/>
       <c r="D302" s="6"/>
@@ -11035,7 +11039,7 @@
       <c r="S302" s="6"/>
       <c r="T302" s="6"/>
     </row>
-    <row r="303" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="303" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B303" s="5"/>
       <c r="C303" s="6"/>
       <c r="D303" s="6"/>
@@ -11056,7 +11060,7 @@
       <c r="S303" s="6"/>
       <c r="T303" s="6"/>
     </row>
-    <row r="304" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="304" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B304" s="5"/>
       <c r="C304" s="6"/>
       <c r="D304" s="6"/>
@@ -11077,7 +11081,7 @@
       <c r="S304" s="6"/>
       <c r="T304" s="6"/>
     </row>
-    <row r="305" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="305" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B305" s="5"/>
       <c r="C305" s="6"/>
       <c r="D305" s="6"/>
@@ -11098,7 +11102,7 @@
       <c r="S305" s="6"/>
       <c r="T305" s="6"/>
     </row>
-    <row r="306" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="306" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B306" s="5"/>
       <c r="C306" s="6"/>
       <c r="D306" s="6"/>
@@ -11119,7 +11123,7 @@
       <c r="S306" s="6"/>
       <c r="T306" s="6"/>
     </row>
-    <row r="307" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="307" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B307" s="5"/>
       <c r="C307" s="6"/>
       <c r="D307" s="6"/>
@@ -11140,7 +11144,7 @@
       <c r="S307" s="6"/>
       <c r="T307" s="6"/>
     </row>
-    <row r="308" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="308" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B308" s="5"/>
       <c r="C308" s="6"/>
       <c r="D308" s="6"/>
@@ -11161,7 +11165,7 @@
       <c r="S308" s="6"/>
       <c r="T308" s="6"/>
     </row>
-    <row r="309" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="309" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B309" s="5"/>
       <c r="C309" s="6"/>
       <c r="D309" s="6"/>
@@ -11182,7 +11186,7 @@
       <c r="S309" s="6"/>
       <c r="T309" s="6"/>
     </row>
-    <row r="310" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="310" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B310" s="5"/>
       <c r="C310" s="6"/>
       <c r="D310" s="6"/>
@@ -11203,7 +11207,7 @@
       <c r="S310" s="6"/>
       <c r="T310" s="6"/>
     </row>
-    <row r="311" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="311" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B311" s="5"/>
       <c r="C311" s="6"/>
       <c r="D311" s="6"/>
@@ -11224,7 +11228,7 @@
       <c r="S311" s="6"/>
       <c r="T311" s="6"/>
     </row>
-    <row r="312" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="312" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B312" s="5"/>
       <c r="C312" s="6"/>
       <c r="D312" s="6"/>
@@ -11245,7 +11249,7 @@
       <c r="S312" s="6"/>
       <c r="T312" s="6"/>
     </row>
-    <row r="313" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="313" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B313" s="5"/>
       <c r="C313" s="6"/>
       <c r="D313" s="6"/>
@@ -11266,7 +11270,7 @@
       <c r="S313" s="6"/>
       <c r="T313" s="6"/>
     </row>
-    <row r="314" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="314" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B314" s="5"/>
       <c r="C314" s="6"/>
       <c r="D314" s="6"/>
@@ -11287,7 +11291,7 @@
       <c r="S314" s="6"/>
       <c r="T314" s="6"/>
     </row>
-    <row r="315" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="315" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B315" s="5"/>
       <c r="C315" s="6"/>
       <c r="D315" s="6"/>
@@ -11308,7 +11312,7 @@
       <c r="S315" s="6"/>
       <c r="T315" s="6"/>
     </row>
-    <row r="316" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="316" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B316" s="5"/>
       <c r="C316" s="6"/>
       <c r="D316" s="6"/>
@@ -11329,7 +11333,7 @@
       <c r="S316" s="6"/>
       <c r="T316" s="6"/>
     </row>
-    <row r="317" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="317" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B317" s="5"/>
       <c r="C317" s="6"/>
       <c r="D317" s="6"/>
@@ -11350,7 +11354,7 @@
       <c r="S317" s="6"/>
       <c r="T317" s="6"/>
     </row>
-    <row r="318" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="318" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B318" s="5"/>
       <c r="C318" s="6"/>
       <c r="D318" s="6"/>
@@ -11371,7 +11375,7 @@
       <c r="S318" s="6"/>
       <c r="T318" s="6"/>
     </row>
-    <row r="319" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="319" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B319" s="5"/>
       <c r="C319" s="6"/>
       <c r="D319" s="6"/>
@@ -11392,7 +11396,7 @@
       <c r="S319" s="6"/>
       <c r="T319" s="6"/>
     </row>
-    <row r="320" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="320" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B320" s="5"/>
       <c r="C320" s="6"/>
       <c r="D320" s="6"/>
@@ -11413,7 +11417,7 @@
       <c r="S320" s="6"/>
       <c r="T320" s="6"/>
     </row>
-    <row r="321" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="321" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B321" s="5"/>
       <c r="C321" s="6"/>
       <c r="D321" s="6"/>
@@ -11434,7 +11438,7 @@
       <c r="S321" s="6"/>
       <c r="T321" s="6"/>
     </row>
-    <row r="322" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="322" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B322" s="5"/>
       <c r="C322" s="6"/>
       <c r="D322" s="6"/>
@@ -11455,7 +11459,7 @@
       <c r="S322" s="6"/>
       <c r="T322" s="6"/>
     </row>
-    <row r="323" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="323" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B323" s="5"/>
       <c r="C323" s="6"/>
       <c r="D323" s="6"/>
@@ -11476,7 +11480,7 @@
       <c r="S323" s="6"/>
       <c r="T323" s="6"/>
     </row>
-    <row r="324" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="324" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B324" s="5"/>
       <c r="C324" s="6"/>
       <c r="D324" s="6"/>
@@ -11497,7 +11501,7 @@
       <c r="S324" s="6"/>
       <c r="T324" s="6"/>
     </row>
-    <row r="325" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="325" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B325" s="5"/>
       <c r="C325" s="6"/>
       <c r="D325" s="6"/>
@@ -11518,7 +11522,7 @@
       <c r="S325" s="6"/>
       <c r="T325" s="6"/>
     </row>
-    <row r="326" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="326" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B326" s="5"/>
       <c r="C326" s="6"/>
       <c r="D326" s="6"/>
@@ -11539,7 +11543,7 @@
       <c r="S326" s="6"/>
       <c r="T326" s="6"/>
     </row>
-    <row r="327" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="327" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B327" s="5"/>
       <c r="C327" s="6"/>
       <c r="D327" s="6"/>
@@ -11560,7 +11564,7 @@
       <c r="S327" s="6"/>
       <c r="T327" s="6"/>
     </row>
-    <row r="328" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="328" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B328" s="5"/>
       <c r="C328" s="6"/>
       <c r="D328" s="6"/>
@@ -11581,7 +11585,7 @@
       <c r="S328" s="6"/>
       <c r="T328" s="6"/>
     </row>
-    <row r="329" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="329" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B329" s="5"/>
       <c r="C329" s="6"/>
       <c r="D329" s="6"/>
@@ -11602,7 +11606,7 @@
       <c r="S329" s="6"/>
       <c r="T329" s="6"/>
     </row>
-    <row r="330" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="330" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B330" s="5"/>
       <c r="C330" s="6"/>
       <c r="D330" s="6"/>
@@ -11623,7 +11627,7 @@
       <c r="S330" s="6"/>
       <c r="T330" s="6"/>
     </row>
-    <row r="331" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="331" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B331" s="5"/>
       <c r="C331" s="6"/>
       <c r="D331" s="6"/>
@@ -11644,7 +11648,7 @@
       <c r="S331" s="6"/>
       <c r="T331" s="6"/>
     </row>
-    <row r="332" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="332" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B332" s="5"/>
       <c r="C332" s="6"/>
       <c r="D332" s="6"/>
@@ -11665,7 +11669,7 @@
       <c r="S332" s="6"/>
       <c r="T332" s="6"/>
     </row>
-    <row r="333" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="333" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B333" s="5"/>
       <c r="C333" s="6"/>
       <c r="D333" s="6"/>
@@ -11686,7 +11690,7 @@
       <c r="S333" s="6"/>
       <c r="T333" s="6"/>
     </row>
-    <row r="334" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="334" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B334" s="5"/>
       <c r="C334" s="6"/>
       <c r="D334" s="6"/>
@@ -11707,7 +11711,7 @@
       <c r="S334" s="6"/>
       <c r="T334" s="6"/>
     </row>
-    <row r="335" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="335" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B335" s="5"/>
       <c r="C335" s="6"/>
       <c r="D335" s="6"/>
@@ -11728,7 +11732,7 @@
       <c r="S335" s="6"/>
       <c r="T335" s="6"/>
     </row>
-    <row r="336" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="336" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B336" s="5"/>
       <c r="C336" s="6"/>
       <c r="D336" s="6"/>
@@ -11749,7 +11753,7 @@
       <c r="S336" s="6"/>
       <c r="T336" s="6"/>
     </row>
-    <row r="337" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="337" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B337" s="5"/>
       <c r="C337" s="6"/>
       <c r="D337" s="6"/>
@@ -11770,7 +11774,7 @@
       <c r="S337" s="6"/>
       <c r="T337" s="6"/>
     </row>
-    <row r="338" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="338" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B338" s="5"/>
       <c r="C338" s="6"/>
       <c r="D338" s="6"/>
@@ -11791,7 +11795,7 @@
       <c r="S338" s="6"/>
       <c r="T338" s="6"/>
     </row>
-    <row r="339" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="339" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B339" s="5"/>
       <c r="C339" s="6"/>
       <c r="D339" s="6"/>
@@ -11812,7 +11816,7 @@
       <c r="S339" s="6"/>
       <c r="T339" s="6"/>
     </row>
-    <row r="340" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="340" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B340" s="5"/>
       <c r="C340" s="6"/>
       <c r="D340" s="6"/>
@@ -11833,7 +11837,7 @@
       <c r="S340" s="6"/>
       <c r="T340" s="6"/>
     </row>
-    <row r="341" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="341" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B341" s="5"/>
       <c r="C341" s="6"/>
       <c r="D341" s="6"/>
@@ -11854,7 +11858,7 @@
       <c r="S341" s="6"/>
       <c r="T341" s="6"/>
     </row>
-    <row r="342" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="342" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B342" s="5"/>
       <c r="C342" s="6"/>
       <c r="D342" s="6"/>
@@ -11875,7 +11879,7 @@
       <c r="S342" s="6"/>
       <c r="T342" s="6"/>
     </row>
-    <row r="343" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="343" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B343" s="5"/>
       <c r="C343" s="6"/>
       <c r="D343" s="6"/>
@@ -11896,7 +11900,7 @@
       <c r="S343" s="6"/>
       <c r="T343" s="6"/>
     </row>
-    <row r="344" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="344" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B344" s="5"/>
       <c r="C344" s="6"/>
       <c r="D344" s="6"/>
@@ -11917,7 +11921,7 @@
       <c r="S344" s="6"/>
       <c r="T344" s="6"/>
     </row>
-    <row r="345" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="345" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B345" s="5"/>
       <c r="C345" s="6"/>
       <c r="D345" s="6"/>
@@ -11938,7 +11942,7 @@
       <c r="S345" s="6"/>
       <c r="T345" s="6"/>
     </row>
-    <row r="346" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="346" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B346" s="5"/>
       <c r="C346" s="6"/>
       <c r="D346" s="6"/>
@@ -11959,7 +11963,7 @@
       <c r="S346" s="6"/>
       <c r="T346" s="6"/>
     </row>
-    <row r="347" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="347" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B347" s="5"/>
       <c r="C347" s="6"/>
       <c r="D347" s="6"/>
@@ -11980,7 +11984,7 @@
       <c r="S347" s="6"/>
       <c r="T347" s="6"/>
     </row>
-    <row r="348" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="348" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B348" s="5"/>
       <c r="C348" s="6"/>
       <c r="D348" s="6"/>
@@ -12001,7 +12005,7 @@
       <c r="S348" s="6"/>
       <c r="T348" s="6"/>
     </row>
-    <row r="349" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="349" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B349" s="5"/>
       <c r="C349" s="6"/>
       <c r="D349" s="6"/>
@@ -12022,7 +12026,7 @@
       <c r="S349" s="6"/>
       <c r="T349" s="6"/>
     </row>
-    <row r="350" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="350" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B350" s="5"/>
       <c r="C350" s="6"/>
       <c r="D350" s="6"/>
@@ -12043,7 +12047,7 @@
       <c r="S350" s="6"/>
       <c r="T350" s="6"/>
     </row>
-    <row r="351" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="351" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B351" s="5"/>
       <c r="C351" s="6"/>
       <c r="D351" s="6"/>
@@ -12064,7 +12068,7 @@
       <c r="S351" s="6"/>
       <c r="T351" s="6"/>
     </row>
-    <row r="352" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="352" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B352" s="5"/>
       <c r="C352" s="6"/>
       <c r="D352" s="6"/>
@@ -12085,7 +12089,7 @@
       <c r="S352" s="6"/>
       <c r="T352" s="6"/>
     </row>
-    <row r="353" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="353" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B353" s="5"/>
       <c r="C353" s="6"/>
       <c r="D353" s="6"/>
@@ -12106,7 +12110,7 @@
       <c r="S353" s="6"/>
       <c r="T353" s="6"/>
     </row>
-    <row r="354" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="354" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B354" s="5"/>
       <c r="C354" s="6"/>
       <c r="D354" s="6"/>
@@ -12127,7 +12131,7 @@
       <c r="S354" s="6"/>
       <c r="T354" s="6"/>
     </row>
-    <row r="355" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="355" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B355" s="5"/>
       <c r="C355" s="6"/>
       <c r="D355" s="6"/>
@@ -12148,7 +12152,7 @@
       <c r="S355" s="6"/>
       <c r="T355" s="6"/>
     </row>
-    <row r="356" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="356" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B356" s="5"/>
       <c r="C356" s="6"/>
       <c r="D356" s="6"/>
@@ -12169,7 +12173,7 @@
       <c r="S356" s="6"/>
       <c r="T356" s="6"/>
     </row>
-    <row r="357" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="357" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B357" s="5"/>
       <c r="C357" s="6"/>
       <c r="D357" s="6"/>
@@ -12190,7 +12194,7 @@
       <c r="S357" s="6"/>
       <c r="T357" s="6"/>
     </row>
-    <row r="358" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="358" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B358" s="5"/>
       <c r="C358" s="6"/>
       <c r="D358" s="6"/>
@@ -12211,7 +12215,7 @@
       <c r="S358" s="6"/>
       <c r="T358" s="6"/>
     </row>
-    <row r="359" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="359" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B359" s="5"/>
       <c r="C359" s="6"/>
       <c r="D359" s="6"/>
@@ -12232,7 +12236,7 @@
       <c r="S359" s="6"/>
       <c r="T359" s="6"/>
     </row>
-    <row r="360" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="360" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B360" s="5"/>
       <c r="C360" s="6"/>
       <c r="D360" s="6"/>
@@ -12253,7 +12257,7 @@
       <c r="S360" s="6"/>
       <c r="T360" s="6"/>
     </row>
-    <row r="361" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="361" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B361" s="5"/>
       <c r="C361" s="6"/>
       <c r="D361" s="6"/>
@@ -12274,7 +12278,7 @@
       <c r="S361" s="6"/>
       <c r="T361" s="6"/>
     </row>
-    <row r="362" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="362" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B362" s="5"/>
       <c r="C362" s="6"/>
       <c r="D362" s="6"/>
@@ -12295,7 +12299,7 @@
       <c r="S362" s="6"/>
       <c r="T362" s="6"/>
     </row>
-    <row r="363" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="363" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B363" s="5"/>
       <c r="C363" s="6"/>
       <c r="D363" s="6"/>
@@ -12316,7 +12320,7 @@
       <c r="S363" s="6"/>
       <c r="T363" s="6"/>
     </row>
-    <row r="364" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="364" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B364" s="5"/>
       <c r="C364" s="6"/>
       <c r="D364" s="6"/>
@@ -12337,7 +12341,7 @@
       <c r="S364" s="6"/>
       <c r="T364" s="6"/>
     </row>
-    <row r="365" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="365" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B365" s="5"/>
       <c r="C365" s="6"/>
       <c r="D365" s="6"/>
@@ -12358,7 +12362,7 @@
       <c r="S365" s="6"/>
       <c r="T365" s="6"/>
     </row>
-    <row r="366" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="366" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B366" s="5"/>
       <c r="C366" s="6"/>
       <c r="D366" s="6"/>
@@ -12379,7 +12383,7 @@
       <c r="S366" s="6"/>
       <c r="T366" s="6"/>
     </row>
-    <row r="367" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="367" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B367" s="5"/>
       <c r="C367" s="6"/>
       <c r="D367" s="6"/>
@@ -12400,7 +12404,7 @@
       <c r="S367" s="6"/>
       <c r="T367" s="6"/>
     </row>
-    <row r="368" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="368" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B368" s="5"/>
       <c r="C368" s="6"/>
       <c r="D368" s="6"/>
@@ -12421,7 +12425,7 @@
       <c r="S368" s="6"/>
       <c r="T368" s="6"/>
     </row>
-    <row r="369" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="369" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B369" s="5"/>
       <c r="C369" s="6"/>
       <c r="D369" s="6"/>
@@ -12442,7 +12446,7 @@
       <c r="S369" s="6"/>
       <c r="T369" s="6"/>
     </row>
-    <row r="370" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="370" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B370" s="5"/>
       <c r="C370" s="6"/>
       <c r="D370" s="6"/>
@@ -12463,7 +12467,7 @@
       <c r="S370" s="6"/>
       <c r="T370" s="6"/>
     </row>
-    <row r="371" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="371" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B371" s="5"/>
       <c r="C371" s="6"/>
       <c r="D371" s="6"/>
@@ -12484,7 +12488,7 @@
       <c r="S371" s="6"/>
       <c r="T371" s="6"/>
     </row>
-    <row r="372" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="372" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B372" s="5"/>
       <c r="C372" s="6"/>
       <c r="D372" s="6"/>
@@ -12505,7 +12509,7 @@
       <c r="S372" s="6"/>
       <c r="T372" s="6"/>
     </row>
-    <row r="373" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="373" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B373" s="5"/>
       <c r="C373" s="6"/>
       <c r="D373" s="6"/>
@@ -12526,7 +12530,7 @@
       <c r="S373" s="6"/>
       <c r="T373" s="6"/>
     </row>
-    <row r="374" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="374" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B374" s="5"/>
       <c r="C374" s="6"/>
       <c r="D374" s="6"/>
@@ -12547,7 +12551,7 @@
       <c r="S374" s="6"/>
       <c r="T374" s="6"/>
     </row>
-    <row r="375" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="375" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B375" s="5"/>
       <c r="C375" s="6"/>
       <c r="D375" s="6"/>
@@ -12568,7 +12572,7 @@
       <c r="S375" s="6"/>
       <c r="T375" s="6"/>
     </row>
-    <row r="376" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="376" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B376" s="5"/>
       <c r="C376" s="6"/>
       <c r="D376" s="6"/>
@@ -12589,7 +12593,7 @@
       <c r="S376" s="6"/>
       <c r="T376" s="6"/>
     </row>
-    <row r="377" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="377" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B377" s="5"/>
       <c r="C377" s="6"/>
       <c r="D377" s="6"/>
@@ -12610,7 +12614,7 @@
       <c r="S377" s="6"/>
       <c r="T377" s="6"/>
     </row>
-    <row r="378" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="378" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B378" s="5"/>
       <c r="C378" s="6"/>
       <c r="D378" s="6"/>
@@ -12631,7 +12635,7 @@
       <c r="S378" s="6"/>
       <c r="T378" s="6"/>
     </row>
-    <row r="379" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="379" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B379" s="5"/>
       <c r="C379" s="6"/>
       <c r="D379" s="6"/>
@@ -12652,7 +12656,7 @@
       <c r="S379" s="6"/>
       <c r="T379" s="6"/>
     </row>
-    <row r="380" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="380" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B380" s="5"/>
       <c r="C380" s="6"/>
       <c r="D380" s="6"/>
@@ -12673,7 +12677,7 @@
       <c r="S380" s="6"/>
       <c r="T380" s="6"/>
     </row>
-    <row r="381" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="381" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B381" s="5"/>
       <c r="C381" s="6"/>
       <c r="D381" s="6"/>
@@ -12694,7 +12698,7 @@
       <c r="S381" s="6"/>
       <c r="T381" s="6"/>
     </row>
-    <row r="382" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="382" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B382" s="5"/>
       <c r="C382" s="6"/>
       <c r="D382" s="6"/>
@@ -12715,7 +12719,7 @@
       <c r="S382" s="6"/>
       <c r="T382" s="6"/>
     </row>
-    <row r="383" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="383" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B383" s="5"/>
       <c r="C383" s="6"/>
       <c r="D383" s="6"/>
@@ -12736,7 +12740,7 @@
       <c r="S383" s="6"/>
       <c r="T383" s="6"/>
     </row>
-    <row r="384" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="384" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B384" s="5"/>
       <c r="C384" s="6"/>
       <c r="D384" s="6"/>
@@ -12757,7 +12761,7 @@
       <c r="S384" s="6"/>
       <c r="T384" s="6"/>
     </row>
-    <row r="385" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="385" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B385" s="5"/>
       <c r="C385" s="6"/>
       <c r="D385" s="6"/>
@@ -12778,7 +12782,7 @@
       <c r="S385" s="6"/>
       <c r="T385" s="6"/>
     </row>
-    <row r="386" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="386" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B386" s="5"/>
       <c r="C386" s="6"/>
       <c r="D386" s="6"/>
@@ -12799,7 +12803,7 @@
       <c r="S386" s="6"/>
       <c r="T386" s="6"/>
     </row>
-    <row r="387" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="387" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B387" s="5"/>
       <c r="C387" s="6"/>
       <c r="D387" s="6"/>
@@ -12820,7 +12824,7 @@
       <c r="S387" s="6"/>
       <c r="T387" s="6"/>
     </row>
-    <row r="388" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="388" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B388" s="5"/>
       <c r="C388" s="6"/>
       <c r="D388" s="6"/>
@@ -12841,7 +12845,7 @@
       <c r="S388" s="6"/>
       <c r="T388" s="6"/>
     </row>
-    <row r="389" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="389" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B389" s="5"/>
       <c r="C389" s="6"/>
       <c r="D389" s="6"/>
@@ -12862,7 +12866,7 @@
       <c r="S389" s="6"/>
       <c r="T389" s="6"/>
     </row>
-    <row r="390" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="390" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B390" s="5"/>
       <c r="C390" s="6"/>
       <c r="D390" s="6"/>
@@ -12883,7 +12887,7 @@
       <c r="S390" s="6"/>
       <c r="T390" s="6"/>
     </row>
-    <row r="391" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="391" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B391" s="5"/>
       <c r="C391" s="6"/>
       <c r="D391" s="6"/>
@@ -12904,7 +12908,7 @@
       <c r="S391" s="6"/>
       <c r="T391" s="6"/>
     </row>
-    <row r="392" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="392" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B392" s="5"/>
       <c r="C392" s="6"/>
       <c r="D392" s="6"/>
@@ -12925,7 +12929,7 @@
       <c r="S392" s="6"/>
       <c r="T392" s="6"/>
     </row>
-    <row r="393" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="393" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B393" s="5"/>
       <c r="C393" s="6"/>
       <c r="D393" s="6"/>
@@ -12946,7 +12950,7 @@
       <c r="S393" s="6"/>
       <c r="T393" s="6"/>
     </row>
-    <row r="394" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="394" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B394" s="5"/>
       <c r="C394" s="6"/>
       <c r="D394" s="6"/>
@@ -12967,7 +12971,7 @@
       <c r="S394" s="6"/>
       <c r="T394" s="6"/>
     </row>
-    <row r="395" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="395" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B395" s="5"/>
       <c r="C395" s="6"/>
       <c r="D395" s="6"/>
@@ -12988,7 +12992,7 @@
       <c r="S395" s="6"/>
       <c r="T395" s="6"/>
     </row>
-    <row r="396" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="396" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B396" s="5"/>
       <c r="C396" s="6"/>
       <c r="D396" s="6"/>
@@ -13022,7 +13026,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LTT/bin/Debug/2022년도 1학기 강의시간표.xlsx
+++ b/LTT/bin/Debug/2022년도 1학기 강의시간표.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b519e6645e706bc/개발/LTT/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_0CCC3DBF2E70530EDE75372E873A3997D7FBEC92" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD3175CB-B413-4DDE-9942-683CD422C0DF}"/>
+  <xr:revisionPtr revIDLastSave="1262" documentId="11_0CCC3DBF2E70530EDE75372E873A3997D7FBEC92" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B630DD4-BA37-44E3-8183-825F06BD41A1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="194" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="194" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="전체강의" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="시간표" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="368">
   <si>
     <t>졸업연구및진로1</t>
   </si>
@@ -1010,6 +1010,170 @@
   </si>
   <si>
     <t>화 목 09:00~10:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학년</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요일 및 강의시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인교수명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의언어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개설학과전공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학수번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분반</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교과목명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이수구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:30~09:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00~09:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:30~10:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00~10:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30~11:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00~11:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30~12:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00~12:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:30~13:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00~13:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:30~14:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00~14:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30~15:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00~15:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:30~16:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00~16:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:30~17:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:00~17:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30~18:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00~18:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:30~19:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00~19:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:30~20:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00~20:30</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1017,7 +1181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1033,6 +1197,13 @@
     <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -1079,7 +1250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1100,6 +1271,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1413,7 +1587,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T396"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="I166" sqref="I166"/>
     </sheetView>
   </sheetViews>
@@ -13022,12 +13196,398 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB4EBE6-9837-4894-ACAE-D390FA49216F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2">
+        <v>11302</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>306</v>
+      </c>
+      <c r="K2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3">
+        <v>9912</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4">
+        <v>9913</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B46" t="s">
+        <v>175</v>
+      </c>
+      <c r="D46" t="s">
+        <v>175</v>
+      </c>
+      <c r="E46" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" t="s">
+        <v>177</v>
+      </c>
+      <c r="E47" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>361</v>
+      </c>
+      <c r="B48" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" t="s">
+        <v>177</v>
+      </c>
+      <c r="E49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>362</v>
+      </c>
+      <c r="B50" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" t="s">
+        <v>175</v>
+      </c>
+      <c r="E50" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" t="s">
+        <v>177</v>
+      </c>
+      <c r="E51" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>363</v>
+      </c>
+      <c r="B52" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" t="s">
+        <v>175</v>
+      </c>
+      <c r="E52" t="s">
+        <v>176</v>
+      </c>
+      <c r="F52" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" t="s">
+        <v>177</v>
+      </c>
+      <c r="E53" t="s">
+        <v>209</v>
+      </c>
+      <c r="F53" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>364</v>
+      </c>
+      <c r="F54" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F55" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>367</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LTT/bin/Debug/2022년도 1학기 강의시간표.xlsx
+++ b/LTT/bin/Debug/2022년도 1학기 강의시간표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b519e6645e706bc/개발/LTT/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1262" documentId="11_0CCC3DBF2E70530EDE75372E873A3997D7FBEC92" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B630DD4-BA37-44E3-8183-825F06BD41A1}"/>
+  <xr:revisionPtr revIDLastSave="2400" documentId="11_0CCC3DBF2E70530EDE75372E873A3997D7FBEC92" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB3D0A66-6256-498E-BC7F-389D4B4F4492}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="194" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3580" yWindow="2140" windowWidth="18720" windowHeight="11740" tabRatio="194" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="전체강의" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="369">
   <si>
     <t>졸업연구및진로1</t>
   </si>
@@ -1175,6 +1175,9 @@
   <si>
     <t>20:00~20:30</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abolghasem Sadeghi-Niaraki</t>
   </si>
 </sst>
 </file>
@@ -1591,19 +1594,19 @@
       <selection activeCell="I166" sqref="I166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="23.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="4"/>
-    <col min="9" max="9" width="32.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.08203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="23.08203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.58203125" style="4"/>
+    <col min="9" max="9" width="32.08203125" style="4" customWidth="1"/>
     <col min="10" max="10" width="15" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.625" style="4"/>
+    <col min="11" max="11" width="20.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="8.58203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>317</v>
       </c>
@@ -1641,7 +1644,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1679,7 +1682,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1717,7 +1720,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1755,7 +1758,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1793,7 +1796,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1831,7 +1834,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1869,7 +1872,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1907,7 +1910,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1945,7 +1948,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1983,7 +1986,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2021,7 +2024,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2059,7 +2062,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2097,7 +2100,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2135,7 +2138,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2173,7 +2176,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2211,7 +2214,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2249,7 +2252,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2287,7 +2290,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2325,7 +2328,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2363,7 +2366,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2401,7 +2404,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2439,7 +2442,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2477,7 +2480,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2515,7 +2518,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2553,7 +2556,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2591,7 +2594,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2629,7 +2632,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2667,7 +2670,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2705,7 +2708,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2743,7 +2746,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2781,7 +2784,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2819,7 +2822,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2857,7 +2860,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2895,7 +2898,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2933,7 +2936,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2971,7 +2974,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3009,7 +3012,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3047,7 +3050,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3085,7 +3088,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3123,7 +3126,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3161,7 +3164,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3199,7 +3202,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -3237,7 +3240,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -3275,7 +3278,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -3313,7 +3316,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -3351,7 +3354,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -3389,7 +3392,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -3427,7 +3430,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -3461,7 +3464,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -3499,7 +3502,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -3537,7 +3540,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -3575,7 +3578,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -3613,7 +3616,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -3651,7 +3654,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -3689,7 +3692,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -3727,7 +3730,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -3765,7 +3768,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3803,7 +3806,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -3841,7 +3844,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -3879,7 +3882,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -3917,7 +3920,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -3955,7 +3958,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -3993,7 +3996,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -4031,7 +4034,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -4069,7 +4072,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -4107,7 +4110,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -4145,7 +4148,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -4183,7 +4186,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -4221,7 +4224,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -4259,7 +4262,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -4297,7 +4300,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -4335,7 +4338,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -4373,7 +4376,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -4411,7 +4414,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -4449,7 +4452,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -4487,7 +4490,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -4525,7 +4528,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -4563,7 +4566,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -4601,7 +4604,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -4639,7 +4642,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -4677,7 +4680,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -4713,7 +4716,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -4749,7 +4752,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -4785,7 +4788,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -4821,7 +4824,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -4857,7 +4860,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -4893,7 +4896,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -4931,7 +4934,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -4969,7 +4972,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -5007,7 +5010,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -5045,7 +5048,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -5083,7 +5086,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -5121,7 +5124,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -5159,7 +5162,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -5197,7 +5200,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -5235,7 +5238,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -5273,7 +5276,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -5311,7 +5314,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -5349,7 +5352,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -5387,7 +5390,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -5425,7 +5428,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -5463,7 +5466,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -5501,7 +5504,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -5539,7 +5542,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -5577,7 +5580,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -5615,7 +5618,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -5653,7 +5656,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -5691,7 +5694,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -5729,7 +5732,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -5767,7 +5770,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -5805,7 +5808,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -5843,7 +5846,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -5881,7 +5884,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -5919,7 +5922,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -5957,7 +5960,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -5995,7 +5998,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -6033,7 +6036,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -6071,7 +6074,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -6109,7 +6112,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -6147,7 +6150,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -6185,7 +6188,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -6223,7 +6226,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -6261,7 +6264,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -6299,7 +6302,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -6337,7 +6340,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -6375,7 +6378,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -6413,7 +6416,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -6451,7 +6454,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -6489,7 +6492,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -6527,7 +6530,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -6565,7 +6568,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -6603,7 +6606,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -6641,7 +6644,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -6679,7 +6682,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -6717,7 +6720,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -6755,7 +6758,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -6793,7 +6796,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -6831,7 +6834,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -6869,7 +6872,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -6907,7 +6910,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -6945,7 +6948,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -6983,7 +6986,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -7021,7 +7024,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -7059,7 +7062,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -7097,7 +7100,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -7135,7 +7138,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -7173,7 +7176,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -7211,7 +7214,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -7249,7 +7252,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -7287,7 +7290,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -7325,7 +7328,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -7363,7 +7366,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -7401,7 +7404,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -7439,7 +7442,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -7477,7 +7480,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -7515,7 +7518,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -7553,7 +7556,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -7591,7 +7594,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -7629,7 +7632,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -7667,7 +7670,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -7705,7 +7708,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -7743,7 +7746,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -7781,7 +7784,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -7819,7 +7822,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -7857,7 +7860,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -7895,7 +7898,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -7933,7 +7936,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -7971,7 +7974,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -8009,7 +8012,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -8047,7 +8050,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -8085,7 +8088,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -8131,7 +8134,7 @@
       <c r="S172" s="6"/>
       <c r="T172" s="6"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -8177,7 +8180,7 @@
       <c r="S173" s="6"/>
       <c r="T173" s="6"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -8223,7 +8226,7 @@
       <c r="S174" s="6"/>
       <c r="T174" s="6"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -8269,7 +8272,7 @@
       <c r="S175" s="6"/>
       <c r="T175" s="6"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -8315,7 +8318,7 @@
       <c r="S176" s="6"/>
       <c r="T176" s="6"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -8361,7 +8364,7 @@
       <c r="S177" s="6"/>
       <c r="T177" s="6"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -8407,7 +8410,7 @@
       <c r="S178" s="6"/>
       <c r="T178" s="6"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -8453,7 +8456,7 @@
       <c r="S179" s="6"/>
       <c r="T179" s="6"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -8499,7 +8502,7 @@
       <c r="S180" s="6"/>
       <c r="T180" s="6"/>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -8545,7 +8548,7 @@
       <c r="S181" s="6"/>
       <c r="T181" s="6"/>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -8591,7 +8594,7 @@
       <c r="S182" s="6"/>
       <c r="T182" s="6"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -8637,7 +8640,7 @@
       <c r="S183" s="6"/>
       <c r="T183" s="6"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -8681,7 +8684,7 @@
       <c r="S184" s="6"/>
       <c r="T184" s="6"/>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -8725,7 +8728,7 @@
       <c r="S185" s="6"/>
       <c r="T185" s="6"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A186" s="2"/>
       <c r="B186" s="5"/>
       <c r="C186" s="6"/>
@@ -8747,7 +8750,7 @@
       <c r="S186" s="6"/>
       <c r="T186" s="6"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A187" s="2"/>
       <c r="B187" s="5"/>
       <c r="C187" s="6"/>
@@ -8769,7 +8772,7 @@
       <c r="S187" s="6"/>
       <c r="T187" s="6"/>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A188" s="2"/>
       <c r="B188" s="5"/>
       <c r="C188" s="6"/>
@@ -8791,7 +8794,7 @@
       <c r="S188" s="6"/>
       <c r="T188" s="6"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A189" s="2"/>
       <c r="B189" s="5"/>
       <c r="C189" s="6"/>
@@ -8813,7 +8816,7 @@
       <c r="S189" s="6"/>
       <c r="T189" s="6"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A190" s="2"/>
       <c r="B190" s="5"/>
       <c r="C190" s="6"/>
@@ -8835,7 +8838,7 @@
       <c r="S190" s="6"/>
       <c r="T190" s="6"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A191" s="2"/>
       <c r="B191" s="5"/>
       <c r="C191" s="6"/>
@@ -8857,7 +8860,7 @@
       <c r="S191" s="6"/>
       <c r="T191" s="6"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A192" s="2"/>
       <c r="B192" s="5"/>
       <c r="C192" s="6"/>
@@ -8879,7 +8882,7 @@
       <c r="S192" s="6"/>
       <c r="T192" s="6"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A193" s="2"/>
       <c r="B193" s="5"/>
       <c r="C193" s="6"/>
@@ -8901,7 +8904,7 @@
       <c r="S193" s="6"/>
       <c r="T193" s="6"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A194" s="2"/>
       <c r="B194" s="5"/>
       <c r="C194" s="6"/>
@@ -8923,7 +8926,7 @@
       <c r="S194" s="6"/>
       <c r="T194" s="6"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A195" s="2"/>
       <c r="B195" s="5"/>
       <c r="C195" s="6"/>
@@ -8945,7 +8948,7 @@
       <c r="S195" s="6"/>
       <c r="T195" s="6"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A196" s="2"/>
       <c r="B196" s="5"/>
       <c r="C196" s="6"/>
@@ -8967,7 +8970,7 @@
       <c r="S196" s="6"/>
       <c r="T196" s="6"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A197" s="2"/>
       <c r="B197" s="5"/>
       <c r="C197" s="6"/>
@@ -8989,7 +8992,7 @@
       <c r="S197" s="6"/>
       <c r="T197" s="6"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A198" s="2"/>
       <c r="B198" s="5"/>
       <c r="C198" s="6"/>
@@ -9011,7 +9014,7 @@
       <c r="S198" s="6"/>
       <c r="T198" s="6"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A199" s="2"/>
       <c r="B199" s="5"/>
       <c r="C199" s="6"/>
@@ -9033,7 +9036,7 @@
       <c r="S199" s="6"/>
       <c r="T199" s="6"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A200" s="2"/>
       <c r="B200" s="5"/>
       <c r="C200" s="6"/>
@@ -9055,7 +9058,7 @@
       <c r="S200" s="6"/>
       <c r="T200" s="6"/>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A201" s="2"/>
       <c r="B201" s="5"/>
       <c r="C201" s="6"/>
@@ -9077,7 +9080,7 @@
       <c r="S201" s="6"/>
       <c r="T201" s="6"/>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A202" s="2"/>
       <c r="B202" s="5"/>
       <c r="C202" s="6"/>
@@ -9099,7 +9102,7 @@
       <c r="S202" s="6"/>
       <c r="T202" s="6"/>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A203" s="2"/>
       <c r="B203" s="5"/>
       <c r="C203" s="6"/>
@@ -9121,7 +9124,7 @@
       <c r="S203" s="6"/>
       <c r="T203" s="6"/>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A204" s="2"/>
       <c r="B204" s="5"/>
       <c r="C204" s="6"/>
@@ -9143,7 +9146,7 @@
       <c r="S204" s="6"/>
       <c r="T204" s="6"/>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A205" s="2"/>
       <c r="B205" s="5"/>
       <c r="C205" s="6"/>
@@ -9165,7 +9168,7 @@
       <c r="S205" s="6"/>
       <c r="T205" s="6"/>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A206" s="2"/>
       <c r="B206" s="5"/>
       <c r="C206" s="6"/>
@@ -9187,7 +9190,7 @@
       <c r="S206" s="6"/>
       <c r="T206" s="6"/>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A207" s="2"/>
       <c r="B207" s="5"/>
       <c r="C207" s="6"/>
@@ -9209,7 +9212,7 @@
       <c r="S207" s="6"/>
       <c r="T207" s="6"/>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A208" s="2"/>
       <c r="B208" s="5"/>
       <c r="C208" s="6"/>
@@ -9231,7 +9234,7 @@
       <c r="S208" s="6"/>
       <c r="T208" s="6"/>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A209" s="2"/>
       <c r="B209" s="5"/>
       <c r="C209" s="6"/>
@@ -9253,7 +9256,7 @@
       <c r="S209" s="6"/>
       <c r="T209" s="6"/>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A210" s="2"/>
       <c r="B210" s="5"/>
       <c r="C210" s="6"/>
@@ -9275,7 +9278,7 @@
       <c r="S210" s="6"/>
       <c r="T210" s="6"/>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A211" s="2"/>
       <c r="B211" s="5"/>
       <c r="C211" s="6"/>
@@ -9297,7 +9300,7 @@
       <c r="S211" s="6"/>
       <c r="T211" s="6"/>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A212" s="2"/>
       <c r="B212" s="5"/>
       <c r="C212" s="6"/>
@@ -9319,7 +9322,7 @@
       <c r="S212" s="6"/>
       <c r="T212" s="6"/>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A213" s="2"/>
       <c r="B213" s="5"/>
       <c r="C213" s="6"/>
@@ -9341,7 +9344,7 @@
       <c r="S213" s="6"/>
       <c r="T213" s="6"/>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A214" s="2"/>
       <c r="B214" s="5"/>
       <c r="C214" s="6"/>
@@ -9363,7 +9366,7 @@
       <c r="S214" s="6"/>
       <c r="T214" s="6"/>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A215" s="2"/>
       <c r="B215" s="5"/>
       <c r="C215" s="6"/>
@@ -9385,7 +9388,7 @@
       <c r="S215" s="6"/>
       <c r="T215" s="6"/>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A216" s="2"/>
       <c r="B216" s="5"/>
       <c r="C216" s="6"/>
@@ -9407,7 +9410,7 @@
       <c r="S216" s="6"/>
       <c r="T216" s="6"/>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B217" s="5"/>
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
@@ -9428,7 +9431,7 @@
       <c r="S217" s="6"/>
       <c r="T217" s="6"/>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B218" s="5"/>
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
@@ -9449,7 +9452,7 @@
       <c r="S218" s="6"/>
       <c r="T218" s="6"/>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B219" s="5"/>
       <c r="C219" s="6"/>
       <c r="D219" s="6"/>
@@ -9470,7 +9473,7 @@
       <c r="S219" s="6"/>
       <c r="T219" s="6"/>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B220" s="5"/>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
@@ -9491,7 +9494,7 @@
       <c r="S220" s="6"/>
       <c r="T220" s="6"/>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B221" s="5"/>
       <c r="C221" s="6"/>
       <c r="D221" s="6"/>
@@ -9512,7 +9515,7 @@
       <c r="S221" s="6"/>
       <c r="T221" s="6"/>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B222" s="5"/>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
@@ -9533,7 +9536,7 @@
       <c r="S222" s="6"/>
       <c r="T222" s="6"/>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B223" s="5"/>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
@@ -9554,7 +9557,7 @@
       <c r="S223" s="6"/>
       <c r="T223" s="6"/>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B224" s="5"/>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
@@ -9575,7 +9578,7 @@
       <c r="S224" s="6"/>
       <c r="T224" s="6"/>
     </row>
-    <row r="225" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B225" s="5"/>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
@@ -9596,7 +9599,7 @@
       <c r="S225" s="6"/>
       <c r="T225" s="6"/>
     </row>
-    <row r="226" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B226" s="5"/>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
@@ -9617,7 +9620,7 @@
       <c r="S226" s="6"/>
       <c r="T226" s="6"/>
     </row>
-    <row r="227" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B227" s="5"/>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
@@ -9638,7 +9641,7 @@
       <c r="S227" s="6"/>
       <c r="T227" s="6"/>
     </row>
-    <row r="228" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B228" s="5"/>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
@@ -9659,7 +9662,7 @@
       <c r="S228" s="6"/>
       <c r="T228" s="6"/>
     </row>
-    <row r="229" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B229" s="5"/>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
@@ -9680,7 +9683,7 @@
       <c r="S229" s="6"/>
       <c r="T229" s="6"/>
     </row>
-    <row r="230" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B230" s="5"/>
       <c r="C230" s="6"/>
       <c r="D230" s="6"/>
@@ -9701,7 +9704,7 @@
       <c r="S230" s="6"/>
       <c r="T230" s="6"/>
     </row>
-    <row r="231" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B231" s="5"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
@@ -9722,7 +9725,7 @@
       <c r="S231" s="6"/>
       <c r="T231" s="6"/>
     </row>
-    <row r="232" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B232" s="5"/>
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
@@ -9743,7 +9746,7 @@
       <c r="S232" s="6"/>
       <c r="T232" s="6"/>
     </row>
-    <row r="233" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B233" s="5"/>
       <c r="C233" s="6"/>
       <c r="D233" s="6"/>
@@ -9764,7 +9767,7 @@
       <c r="S233" s="6"/>
       <c r="T233" s="6"/>
     </row>
-    <row r="234" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B234" s="5"/>
       <c r="C234" s="6"/>
       <c r="D234" s="6"/>
@@ -9785,7 +9788,7 @@
       <c r="S234" s="6"/>
       <c r="T234" s="6"/>
     </row>
-    <row r="235" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B235" s="5"/>
       <c r="C235" s="6"/>
       <c r="D235" s="6"/>
@@ -9806,7 +9809,7 @@
       <c r="S235" s="6"/>
       <c r="T235" s="6"/>
     </row>
-    <row r="236" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B236" s="5"/>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
@@ -9827,7 +9830,7 @@
       <c r="S236" s="6"/>
       <c r="T236" s="6"/>
     </row>
-    <row r="237" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B237" s="5"/>
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
@@ -9848,7 +9851,7 @@
       <c r="S237" s="6"/>
       <c r="T237" s="6"/>
     </row>
-    <row r="238" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B238" s="5"/>
       <c r="C238" s="6"/>
       <c r="D238" s="6"/>
@@ -9869,7 +9872,7 @@
       <c r="S238" s="6"/>
       <c r="T238" s="6"/>
     </row>
-    <row r="239" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B239" s="5"/>
       <c r="C239" s="6"/>
       <c r="D239" s="6"/>
@@ -9890,7 +9893,7 @@
       <c r="S239" s="6"/>
       <c r="T239" s="6"/>
     </row>
-    <row r="240" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B240" s="5"/>
       <c r="C240" s="6"/>
       <c r="D240" s="6"/>
@@ -9911,7 +9914,7 @@
       <c r="S240" s="6"/>
       <c r="T240" s="6"/>
     </row>
-    <row r="241" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B241" s="5"/>
       <c r="C241" s="6"/>
       <c r="D241" s="6"/>
@@ -9932,7 +9935,7 @@
       <c r="S241" s="6"/>
       <c r="T241" s="6"/>
     </row>
-    <row r="242" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B242" s="5"/>
       <c r="C242" s="6"/>
       <c r="D242" s="6"/>
@@ -9953,7 +9956,7 @@
       <c r="S242" s="6"/>
       <c r="T242" s="6"/>
     </row>
-    <row r="243" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B243" s="5"/>
       <c r="C243" s="6"/>
       <c r="D243" s="6"/>
@@ -9974,7 +9977,7 @@
       <c r="S243" s="6"/>
       <c r="T243" s="6"/>
     </row>
-    <row r="244" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B244" s="5"/>
       <c r="C244" s="6"/>
       <c r="D244" s="6"/>
@@ -9995,7 +9998,7 @@
       <c r="S244" s="6"/>
       <c r="T244" s="6"/>
     </row>
-    <row r="245" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B245" s="5"/>
       <c r="C245" s="6"/>
       <c r="D245" s="6"/>
@@ -10016,7 +10019,7 @@
       <c r="S245" s="6"/>
       <c r="T245" s="6"/>
     </row>
-    <row r="246" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B246" s="5"/>
       <c r="C246" s="6"/>
       <c r="D246" s="6"/>
@@ -10037,7 +10040,7 @@
       <c r="S246" s="6"/>
       <c r="T246" s="6"/>
     </row>
-    <row r="247" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B247" s="5"/>
       <c r="C247" s="6"/>
       <c r="D247" s="6"/>
@@ -10058,7 +10061,7 @@
       <c r="S247" s="6"/>
       <c r="T247" s="6"/>
     </row>
-    <row r="248" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B248" s="5"/>
       <c r="C248" s="6"/>
       <c r="D248" s="6"/>
@@ -10079,7 +10082,7 @@
       <c r="S248" s="6"/>
       <c r="T248" s="6"/>
     </row>
-    <row r="249" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B249" s="5"/>
       <c r="C249" s="6"/>
       <c r="D249" s="6"/>
@@ -10100,7 +10103,7 @@
       <c r="S249" s="6"/>
       <c r="T249" s="6"/>
     </row>
-    <row r="250" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B250" s="5"/>
       <c r="C250" s="6"/>
       <c r="D250" s="6"/>
@@ -10121,7 +10124,7 @@
       <c r="S250" s="6"/>
       <c r="T250" s="6"/>
     </row>
-    <row r="251" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B251" s="5"/>
       <c r="C251" s="6"/>
       <c r="D251" s="6"/>
@@ -10142,7 +10145,7 @@
       <c r="S251" s="6"/>
       <c r="T251" s="6"/>
     </row>
-    <row r="252" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B252" s="5"/>
       <c r="C252" s="6"/>
       <c r="D252" s="6"/>
@@ -10163,7 +10166,7 @@
       <c r="S252" s="6"/>
       <c r="T252" s="6"/>
     </row>
-    <row r="253" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B253" s="5"/>
       <c r="C253" s="6"/>
       <c r="D253" s="6"/>
@@ -10184,7 +10187,7 @@
       <c r="S253" s="6"/>
       <c r="T253" s="6"/>
     </row>
-    <row r="254" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B254" s="5"/>
       <c r="C254" s="6"/>
       <c r="D254" s="6"/>
@@ -10205,7 +10208,7 @@
       <c r="S254" s="6"/>
       <c r="T254" s="6"/>
     </row>
-    <row r="255" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B255" s="5"/>
       <c r="C255" s="6"/>
       <c r="D255" s="6"/>
@@ -10226,7 +10229,7 @@
       <c r="S255" s="6"/>
       <c r="T255" s="6"/>
     </row>
-    <row r="256" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B256" s="5"/>
       <c r="C256" s="6"/>
       <c r="D256" s="6"/>
@@ -10247,7 +10250,7 @@
       <c r="S256" s="6"/>
       <c r="T256" s="6"/>
     </row>
-    <row r="257" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B257" s="5"/>
       <c r="C257" s="6"/>
       <c r="D257" s="6"/>
@@ -10268,7 +10271,7 @@
       <c r="S257" s="6"/>
       <c r="T257" s="6"/>
     </row>
-    <row r="258" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B258" s="5"/>
       <c r="C258" s="6"/>
       <c r="D258" s="6"/>
@@ -10289,7 +10292,7 @@
       <c r="S258" s="6"/>
       <c r="T258" s="6"/>
     </row>
-    <row r="259" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B259" s="5"/>
       <c r="C259" s="6"/>
       <c r="D259" s="6"/>
@@ -10310,7 +10313,7 @@
       <c r="S259" s="6"/>
       <c r="T259" s="6"/>
     </row>
-    <row r="260" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B260" s="5"/>
       <c r="C260" s="6"/>
       <c r="D260" s="6"/>
@@ -10331,7 +10334,7 @@
       <c r="S260" s="6"/>
       <c r="T260" s="6"/>
     </row>
-    <row r="261" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B261" s="5"/>
       <c r="C261" s="6"/>
       <c r="D261" s="6"/>
@@ -10352,7 +10355,7 @@
       <c r="S261" s="6"/>
       <c r="T261" s="6"/>
     </row>
-    <row r="262" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B262" s="5"/>
       <c r="C262" s="6"/>
       <c r="D262" s="6"/>
@@ -10373,7 +10376,7 @@
       <c r="S262" s="6"/>
       <c r="T262" s="6"/>
     </row>
-    <row r="263" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B263" s="5"/>
       <c r="C263" s="6"/>
       <c r="D263" s="6"/>
@@ -10394,7 +10397,7 @@
       <c r="S263" s="6"/>
       <c r="T263" s="6"/>
     </row>
-    <row r="264" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B264" s="5"/>
       <c r="C264" s="6"/>
       <c r="D264" s="6"/>
@@ -10415,7 +10418,7 @@
       <c r="S264" s="6"/>
       <c r="T264" s="6"/>
     </row>
-    <row r="265" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B265" s="5"/>
       <c r="C265" s="6"/>
       <c r="D265" s="6"/>
@@ -10436,7 +10439,7 @@
       <c r="S265" s="6"/>
       <c r="T265" s="6"/>
     </row>
-    <row r="266" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B266" s="5"/>
       <c r="C266" s="6"/>
       <c r="D266" s="6"/>
@@ -10457,7 +10460,7 @@
       <c r="S266" s="6"/>
       <c r="T266" s="6"/>
     </row>
-    <row r="267" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B267" s="5"/>
       <c r="C267" s="6"/>
       <c r="D267" s="6"/>
@@ -10478,7 +10481,7 @@
       <c r="S267" s="6"/>
       <c r="T267" s="6"/>
     </row>
-    <row r="268" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B268" s="5"/>
       <c r="C268" s="6"/>
       <c r="D268" s="6"/>
@@ -10499,7 +10502,7 @@
       <c r="S268" s="6"/>
       <c r="T268" s="6"/>
     </row>
-    <row r="269" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B269" s="5"/>
       <c r="C269" s="6"/>
       <c r="D269" s="6"/>
@@ -10520,7 +10523,7 @@
       <c r="S269" s="6"/>
       <c r="T269" s="6"/>
     </row>
-    <row r="270" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B270" s="5"/>
       <c r="C270" s="6"/>
       <c r="D270" s="6"/>
@@ -10541,7 +10544,7 @@
       <c r="S270" s="6"/>
       <c r="T270" s="6"/>
     </row>
-    <row r="271" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B271" s="5"/>
       <c r="C271" s="6"/>
       <c r="D271" s="6"/>
@@ -10562,7 +10565,7 @@
       <c r="S271" s="6"/>
       <c r="T271" s="6"/>
     </row>
-    <row r="272" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B272" s="5"/>
       <c r="C272" s="6"/>
       <c r="D272" s="6"/>
@@ -10583,7 +10586,7 @@
       <c r="S272" s="6"/>
       <c r="T272" s="6"/>
     </row>
-    <row r="273" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B273" s="5"/>
       <c r="C273" s="6"/>
       <c r="D273" s="6"/>
@@ -10604,7 +10607,7 @@
       <c r="S273" s="6"/>
       <c r="T273" s="6"/>
     </row>
-    <row r="274" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B274" s="5"/>
       <c r="C274" s="6"/>
       <c r="D274" s="6"/>
@@ -10625,7 +10628,7 @@
       <c r="S274" s="6"/>
       <c r="T274" s="6"/>
     </row>
-    <row r="275" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B275" s="5"/>
       <c r="C275" s="6"/>
       <c r="D275" s="6"/>
@@ -10646,7 +10649,7 @@
       <c r="S275" s="6"/>
       <c r="T275" s="6"/>
     </row>
-    <row r="276" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B276" s="5"/>
       <c r="C276" s="6"/>
       <c r="D276" s="6"/>
@@ -10667,7 +10670,7 @@
       <c r="S276" s="6"/>
       <c r="T276" s="6"/>
     </row>
-    <row r="277" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B277" s="5"/>
       <c r="C277" s="6"/>
       <c r="D277" s="6"/>
@@ -10688,7 +10691,7 @@
       <c r="S277" s="6"/>
       <c r="T277" s="6"/>
     </row>
-    <row r="278" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B278" s="5"/>
       <c r="C278" s="6"/>
       <c r="D278" s="6"/>
@@ -10709,7 +10712,7 @@
       <c r="S278" s="6"/>
       <c r="T278" s="6"/>
     </row>
-    <row r="279" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B279" s="5"/>
       <c r="C279" s="6"/>
       <c r="D279" s="6"/>
@@ -10730,7 +10733,7 @@
       <c r="S279" s="6"/>
       <c r="T279" s="6"/>
     </row>
-    <row r="280" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B280" s="5"/>
       <c r="C280" s="6"/>
       <c r="D280" s="6"/>
@@ -10751,7 +10754,7 @@
       <c r="S280" s="6"/>
       <c r="T280" s="6"/>
     </row>
-    <row r="281" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B281" s="5"/>
       <c r="C281" s="6"/>
       <c r="D281" s="6"/>
@@ -10772,7 +10775,7 @@
       <c r="S281" s="6"/>
       <c r="T281" s="6"/>
     </row>
-    <row r="282" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B282" s="5"/>
       <c r="C282" s="6"/>
       <c r="D282" s="6"/>
@@ -10793,7 +10796,7 @@
       <c r="S282" s="6"/>
       <c r="T282" s="6"/>
     </row>
-    <row r="283" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B283" s="5"/>
       <c r="C283" s="6"/>
       <c r="D283" s="6"/>
@@ -10814,7 +10817,7 @@
       <c r="S283" s="6"/>
       <c r="T283" s="6"/>
     </row>
-    <row r="284" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B284" s="5"/>
       <c r="C284" s="6"/>
       <c r="D284" s="6"/>
@@ -10835,7 +10838,7 @@
       <c r="S284" s="6"/>
       <c r="T284" s="6"/>
     </row>
-    <row r="285" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B285" s="5"/>
       <c r="C285" s="6"/>
       <c r="D285" s="6"/>
@@ -10856,7 +10859,7 @@
       <c r="S285" s="6"/>
       <c r="T285" s="6"/>
     </row>
-    <row r="286" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B286" s="5"/>
       <c r="C286" s="6"/>
       <c r="D286" s="6"/>
@@ -10877,7 +10880,7 @@
       <c r="S286" s="6"/>
       <c r="T286" s="6"/>
     </row>
-    <row r="287" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B287" s="5"/>
       <c r="C287" s="6"/>
       <c r="D287" s="6"/>
@@ -10898,7 +10901,7 @@
       <c r="S287" s="6"/>
       <c r="T287" s="6"/>
     </row>
-    <row r="288" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B288" s="5"/>
       <c r="C288" s="6"/>
       <c r="D288" s="6"/>
@@ -10919,7 +10922,7 @@
       <c r="S288" s="6"/>
       <c r="T288" s="6"/>
     </row>
-    <row r="289" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B289" s="5"/>
       <c r="C289" s="6"/>
       <c r="D289" s="6"/>
@@ -10940,7 +10943,7 @@
       <c r="S289" s="6"/>
       <c r="T289" s="6"/>
     </row>
-    <row r="290" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B290" s="5"/>
       <c r="C290" s="6"/>
       <c r="D290" s="6"/>
@@ -10961,7 +10964,7 @@
       <c r="S290" s="6"/>
       <c r="T290" s="6"/>
     </row>
-    <row r="291" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B291" s="5"/>
       <c r="C291" s="6"/>
       <c r="D291" s="6"/>
@@ -10982,7 +10985,7 @@
       <c r="S291" s="6"/>
       <c r="T291" s="6"/>
     </row>
-    <row r="292" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B292" s="5"/>
       <c r="C292" s="6"/>
       <c r="D292" s="6"/>
@@ -11003,7 +11006,7 @@
       <c r="S292" s="6"/>
       <c r="T292" s="6"/>
     </row>
-    <row r="293" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B293" s="5"/>
       <c r="C293" s="6"/>
       <c r="D293" s="6"/>
@@ -11024,7 +11027,7 @@
       <c r="S293" s="6"/>
       <c r="T293" s="6"/>
     </row>
-    <row r="294" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B294" s="5"/>
       <c r="C294" s="6"/>
       <c r="D294" s="6"/>
@@ -11045,7 +11048,7 @@
       <c r="S294" s="6"/>
       <c r="T294" s="6"/>
     </row>
-    <row r="295" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B295" s="5"/>
       <c r="C295" s="6"/>
       <c r="D295" s="6"/>
@@ -11066,7 +11069,7 @@
       <c r="S295" s="6"/>
       <c r="T295" s="6"/>
     </row>
-    <row r="296" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B296" s="5"/>
       <c r="C296" s="6"/>
       <c r="D296" s="6"/>
@@ -11087,7 +11090,7 @@
       <c r="S296" s="6"/>
       <c r="T296" s="6"/>
     </row>
-    <row r="297" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B297" s="5"/>
       <c r="C297" s="6"/>
       <c r="D297" s="6"/>
@@ -11108,7 +11111,7 @@
       <c r="S297" s="6"/>
       <c r="T297" s="6"/>
     </row>
-    <row r="298" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B298" s="5"/>
       <c r="C298" s="6"/>
       <c r="D298" s="6"/>
@@ -11129,7 +11132,7 @@
       <c r="S298" s="6"/>
       <c r="T298" s="6"/>
     </row>
-    <row r="299" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B299" s="5"/>
       <c r="C299" s="6"/>
       <c r="D299" s="6"/>
@@ -11150,7 +11153,7 @@
       <c r="S299" s="6"/>
       <c r="T299" s="6"/>
     </row>
-    <row r="300" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B300" s="5"/>
       <c r="C300" s="6"/>
       <c r="D300" s="6"/>
@@ -11171,7 +11174,7 @@
       <c r="S300" s="6"/>
       <c r="T300" s="6"/>
     </row>
-    <row r="301" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B301" s="5"/>
       <c r="C301" s="6"/>
       <c r="D301" s="6"/>
@@ -11192,7 +11195,7 @@
       <c r="S301" s="6"/>
       <c r="T301" s="6"/>
     </row>
-    <row r="302" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B302" s="5"/>
       <c r="C302" s="6"/>
       <c r="D302" s="6"/>
@@ -11213,7 +11216,7 @@
       <c r="S302" s="6"/>
       <c r="T302" s="6"/>
     </row>
-    <row r="303" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B303" s="5"/>
       <c r="C303" s="6"/>
       <c r="D303" s="6"/>
@@ -11234,7 +11237,7 @@
       <c r="S303" s="6"/>
       <c r="T303" s="6"/>
     </row>
-    <row r="304" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B304" s="5"/>
       <c r="C304" s="6"/>
       <c r="D304" s="6"/>
@@ -11255,7 +11258,7 @@
       <c r="S304" s="6"/>
       <c r="T304" s="6"/>
     </row>
-    <row r="305" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B305" s="5"/>
       <c r="C305" s="6"/>
       <c r="D305" s="6"/>
@@ -11276,7 +11279,7 @@
       <c r="S305" s="6"/>
       <c r="T305" s="6"/>
     </row>
-    <row r="306" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B306" s="5"/>
       <c r="C306" s="6"/>
       <c r="D306" s="6"/>
@@ -11297,7 +11300,7 @@
       <c r="S306" s="6"/>
       <c r="T306" s="6"/>
     </row>
-    <row r="307" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B307" s="5"/>
       <c r="C307" s="6"/>
       <c r="D307" s="6"/>
@@ -11318,7 +11321,7 @@
       <c r="S307" s="6"/>
       <c r="T307" s="6"/>
     </row>
-    <row r="308" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B308" s="5"/>
       <c r="C308" s="6"/>
       <c r="D308" s="6"/>
@@ -11339,7 +11342,7 @@
       <c r="S308" s="6"/>
       <c r="T308" s="6"/>
     </row>
-    <row r="309" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B309" s="5"/>
       <c r="C309" s="6"/>
       <c r="D309" s="6"/>
@@ -11360,7 +11363,7 @@
       <c r="S309" s="6"/>
       <c r="T309" s="6"/>
     </row>
-    <row r="310" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B310" s="5"/>
       <c r="C310" s="6"/>
       <c r="D310" s="6"/>
@@ -11381,7 +11384,7 @@
       <c r="S310" s="6"/>
       <c r="T310" s="6"/>
     </row>
-    <row r="311" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B311" s="5"/>
       <c r="C311" s="6"/>
       <c r="D311" s="6"/>
@@ -11402,7 +11405,7 @@
       <c r="S311" s="6"/>
       <c r="T311" s="6"/>
     </row>
-    <row r="312" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B312" s="5"/>
       <c r="C312" s="6"/>
       <c r="D312" s="6"/>
@@ -11423,7 +11426,7 @@
       <c r="S312" s="6"/>
       <c r="T312" s="6"/>
     </row>
-    <row r="313" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B313" s="5"/>
       <c r="C313" s="6"/>
       <c r="D313" s="6"/>
@@ -11444,7 +11447,7 @@
       <c r="S313" s="6"/>
       <c r="T313" s="6"/>
     </row>
-    <row r="314" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B314" s="5"/>
       <c r="C314" s="6"/>
       <c r="D314" s="6"/>
@@ -11465,7 +11468,7 @@
       <c r="S314" s="6"/>
       <c r="T314" s="6"/>
     </row>
-    <row r="315" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B315" s="5"/>
       <c r="C315" s="6"/>
       <c r="D315" s="6"/>
@@ -11486,7 +11489,7 @@
       <c r="S315" s="6"/>
       <c r="T315" s="6"/>
     </row>
-    <row r="316" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B316" s="5"/>
       <c r="C316" s="6"/>
       <c r="D316" s="6"/>
@@ -11507,7 +11510,7 @@
       <c r="S316" s="6"/>
       <c r="T316" s="6"/>
     </row>
-    <row r="317" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B317" s="5"/>
       <c r="C317" s="6"/>
       <c r="D317" s="6"/>
@@ -11528,7 +11531,7 @@
       <c r="S317" s="6"/>
       <c r="T317" s="6"/>
     </row>
-    <row r="318" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B318" s="5"/>
       <c r="C318" s="6"/>
       <c r="D318" s="6"/>
@@ -11549,7 +11552,7 @@
       <c r="S318" s="6"/>
       <c r="T318" s="6"/>
     </row>
-    <row r="319" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B319" s="5"/>
       <c r="C319" s="6"/>
       <c r="D319" s="6"/>
@@ -11570,7 +11573,7 @@
       <c r="S319" s="6"/>
       <c r="T319" s="6"/>
     </row>
-    <row r="320" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B320" s="5"/>
       <c r="C320" s="6"/>
       <c r="D320" s="6"/>
@@ -11591,7 +11594,7 @@
       <c r="S320" s="6"/>
       <c r="T320" s="6"/>
     </row>
-    <row r="321" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B321" s="5"/>
       <c r="C321" s="6"/>
       <c r="D321" s="6"/>
@@ -11612,7 +11615,7 @@
       <c r="S321" s="6"/>
       <c r="T321" s="6"/>
     </row>
-    <row r="322" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B322" s="5"/>
       <c r="C322" s="6"/>
       <c r="D322" s="6"/>
@@ -11633,7 +11636,7 @@
       <c r="S322" s="6"/>
       <c r="T322" s="6"/>
     </row>
-    <row r="323" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B323" s="5"/>
       <c r="C323" s="6"/>
       <c r="D323" s="6"/>
@@ -11654,7 +11657,7 @@
       <c r="S323" s="6"/>
       <c r="T323" s="6"/>
     </row>
-    <row r="324" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B324" s="5"/>
       <c r="C324" s="6"/>
       <c r="D324" s="6"/>
@@ -11675,7 +11678,7 @@
       <c r="S324" s="6"/>
       <c r="T324" s="6"/>
     </row>
-    <row r="325" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B325" s="5"/>
       <c r="C325" s="6"/>
       <c r="D325" s="6"/>
@@ -11696,7 +11699,7 @@
       <c r="S325" s="6"/>
       <c r="T325" s="6"/>
     </row>
-    <row r="326" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B326" s="5"/>
       <c r="C326" s="6"/>
       <c r="D326" s="6"/>
@@ -11717,7 +11720,7 @@
       <c r="S326" s="6"/>
       <c r="T326" s="6"/>
     </row>
-    <row r="327" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B327" s="5"/>
       <c r="C327" s="6"/>
       <c r="D327" s="6"/>
@@ -11738,7 +11741,7 @@
       <c r="S327" s="6"/>
       <c r="T327" s="6"/>
     </row>
-    <row r="328" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B328" s="5"/>
       <c r="C328" s="6"/>
       <c r="D328" s="6"/>
@@ -11759,7 +11762,7 @@
       <c r="S328" s="6"/>
       <c r="T328" s="6"/>
     </row>
-    <row r="329" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B329" s="5"/>
       <c r="C329" s="6"/>
       <c r="D329" s="6"/>
@@ -11780,7 +11783,7 @@
       <c r="S329" s="6"/>
       <c r="T329" s="6"/>
     </row>
-    <row r="330" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B330" s="5"/>
       <c r="C330" s="6"/>
       <c r="D330" s="6"/>
@@ -11801,7 +11804,7 @@
       <c r="S330" s="6"/>
       <c r="T330" s="6"/>
     </row>
-    <row r="331" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B331" s="5"/>
       <c r="C331" s="6"/>
       <c r="D331" s="6"/>
@@ -11822,7 +11825,7 @@
       <c r="S331" s="6"/>
       <c r="T331" s="6"/>
     </row>
-    <row r="332" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B332" s="5"/>
       <c r="C332" s="6"/>
       <c r="D332" s="6"/>
@@ -11843,7 +11846,7 @@
       <c r="S332" s="6"/>
       <c r="T332" s="6"/>
     </row>
-    <row r="333" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B333" s="5"/>
       <c r="C333" s="6"/>
       <c r="D333" s="6"/>
@@ -11864,7 +11867,7 @@
       <c r="S333" s="6"/>
       <c r="T333" s="6"/>
     </row>
-    <row r="334" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B334" s="5"/>
       <c r="C334" s="6"/>
       <c r="D334" s="6"/>
@@ -11885,7 +11888,7 @@
       <c r="S334" s="6"/>
       <c r="T334" s="6"/>
     </row>
-    <row r="335" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B335" s="5"/>
       <c r="C335" s="6"/>
       <c r="D335" s="6"/>
@@ -11906,7 +11909,7 @@
       <c r="S335" s="6"/>
       <c r="T335" s="6"/>
     </row>
-    <row r="336" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B336" s="5"/>
       <c r="C336" s="6"/>
       <c r="D336" s="6"/>
@@ -11927,7 +11930,7 @@
       <c r="S336" s="6"/>
       <c r="T336" s="6"/>
     </row>
-    <row r="337" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B337" s="5"/>
       <c r="C337" s="6"/>
       <c r="D337" s="6"/>
@@ -11948,7 +11951,7 @@
       <c r="S337" s="6"/>
       <c r="T337" s="6"/>
     </row>
-    <row r="338" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B338" s="5"/>
       <c r="C338" s="6"/>
       <c r="D338" s="6"/>
@@ -11969,7 +11972,7 @@
       <c r="S338" s="6"/>
       <c r="T338" s="6"/>
     </row>
-    <row r="339" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B339" s="5"/>
       <c r="C339" s="6"/>
       <c r="D339" s="6"/>
@@ -11990,7 +11993,7 @@
       <c r="S339" s="6"/>
       <c r="T339" s="6"/>
     </row>
-    <row r="340" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B340" s="5"/>
       <c r="C340" s="6"/>
       <c r="D340" s="6"/>
@@ -12011,7 +12014,7 @@
       <c r="S340" s="6"/>
       <c r="T340" s="6"/>
     </row>
-    <row r="341" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B341" s="5"/>
       <c r="C341" s="6"/>
       <c r="D341" s="6"/>
@@ -12032,7 +12035,7 @@
       <c r="S341" s="6"/>
       <c r="T341" s="6"/>
     </row>
-    <row r="342" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B342" s="5"/>
       <c r="C342" s="6"/>
       <c r="D342" s="6"/>
@@ -12053,7 +12056,7 @@
       <c r="S342" s="6"/>
       <c r="T342" s="6"/>
     </row>
-    <row r="343" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B343" s="5"/>
       <c r="C343" s="6"/>
       <c r="D343" s="6"/>
@@ -12074,7 +12077,7 @@
       <c r="S343" s="6"/>
       <c r="T343" s="6"/>
     </row>
-    <row r="344" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B344" s="5"/>
       <c r="C344" s="6"/>
       <c r="D344" s="6"/>
@@ -12095,7 +12098,7 @@
       <c r="S344" s="6"/>
       <c r="T344" s="6"/>
     </row>
-    <row r="345" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B345" s="5"/>
       <c r="C345" s="6"/>
       <c r="D345" s="6"/>
@@ -12116,7 +12119,7 @@
       <c r="S345" s="6"/>
       <c r="T345" s="6"/>
     </row>
-    <row r="346" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B346" s="5"/>
       <c r="C346" s="6"/>
       <c r="D346" s="6"/>
@@ -12137,7 +12140,7 @@
       <c r="S346" s="6"/>
       <c r="T346" s="6"/>
     </row>
-    <row r="347" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B347" s="5"/>
       <c r="C347" s="6"/>
       <c r="D347" s="6"/>
@@ -12158,7 +12161,7 @@
       <c r="S347" s="6"/>
       <c r="T347" s="6"/>
     </row>
-    <row r="348" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B348" s="5"/>
       <c r="C348" s="6"/>
       <c r="D348" s="6"/>
@@ -12179,7 +12182,7 @@
       <c r="S348" s="6"/>
       <c r="T348" s="6"/>
     </row>
-    <row r="349" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B349" s="5"/>
       <c r="C349" s="6"/>
       <c r="D349" s="6"/>
@@ -12200,7 +12203,7 @@
       <c r="S349" s="6"/>
       <c r="T349" s="6"/>
     </row>
-    <row r="350" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B350" s="5"/>
       <c r="C350" s="6"/>
       <c r="D350" s="6"/>
@@ -12221,7 +12224,7 @@
       <c r="S350" s="6"/>
       <c r="T350" s="6"/>
     </row>
-    <row r="351" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B351" s="5"/>
       <c r="C351" s="6"/>
       <c r="D351" s="6"/>
@@ -12242,7 +12245,7 @@
       <c r="S351" s="6"/>
       <c r="T351" s="6"/>
     </row>
-    <row r="352" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B352" s="5"/>
       <c r="C352" s="6"/>
       <c r="D352" s="6"/>
@@ -12263,7 +12266,7 @@
       <c r="S352" s="6"/>
       <c r="T352" s="6"/>
     </row>
-    <row r="353" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B353" s="5"/>
       <c r="C353" s="6"/>
       <c r="D353" s="6"/>
@@ -12284,7 +12287,7 @@
       <c r="S353" s="6"/>
       <c r="T353" s="6"/>
     </row>
-    <row r="354" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B354" s="5"/>
       <c r="C354" s="6"/>
       <c r="D354" s="6"/>
@@ -12305,7 +12308,7 @@
       <c r="S354" s="6"/>
       <c r="T354" s="6"/>
     </row>
-    <row r="355" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B355" s="5"/>
       <c r="C355" s="6"/>
       <c r="D355" s="6"/>
@@ -12326,7 +12329,7 @@
       <c r="S355" s="6"/>
       <c r="T355" s="6"/>
     </row>
-    <row r="356" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B356" s="5"/>
       <c r="C356" s="6"/>
       <c r="D356" s="6"/>
@@ -12347,7 +12350,7 @@
       <c r="S356" s="6"/>
       <c r="T356" s="6"/>
     </row>
-    <row r="357" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B357" s="5"/>
       <c r="C357" s="6"/>
       <c r="D357" s="6"/>
@@ -12368,7 +12371,7 @@
       <c r="S357" s="6"/>
       <c r="T357" s="6"/>
     </row>
-    <row r="358" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B358" s="5"/>
       <c r="C358" s="6"/>
       <c r="D358" s="6"/>
@@ -12389,7 +12392,7 @@
       <c r="S358" s="6"/>
       <c r="T358" s="6"/>
     </row>
-    <row r="359" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B359" s="5"/>
       <c r="C359" s="6"/>
       <c r="D359" s="6"/>
@@ -12410,7 +12413,7 @@
       <c r="S359" s="6"/>
       <c r="T359" s="6"/>
     </row>
-    <row r="360" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B360" s="5"/>
       <c r="C360" s="6"/>
       <c r="D360" s="6"/>
@@ -12431,7 +12434,7 @@
       <c r="S360" s="6"/>
       <c r="T360" s="6"/>
     </row>
-    <row r="361" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B361" s="5"/>
       <c r="C361" s="6"/>
       <c r="D361" s="6"/>
@@ -12452,7 +12455,7 @@
       <c r="S361" s="6"/>
       <c r="T361" s="6"/>
     </row>
-    <row r="362" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B362" s="5"/>
       <c r="C362" s="6"/>
       <c r="D362" s="6"/>
@@ -12473,7 +12476,7 @@
       <c r="S362" s="6"/>
       <c r="T362" s="6"/>
     </row>
-    <row r="363" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B363" s="5"/>
       <c r="C363" s="6"/>
       <c r="D363" s="6"/>
@@ -12494,7 +12497,7 @@
       <c r="S363" s="6"/>
       <c r="T363" s="6"/>
     </row>
-    <row r="364" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B364" s="5"/>
       <c r="C364" s="6"/>
       <c r="D364" s="6"/>
@@ -12515,7 +12518,7 @@
       <c r="S364" s="6"/>
       <c r="T364" s="6"/>
     </row>
-    <row r="365" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B365" s="5"/>
       <c r="C365" s="6"/>
       <c r="D365" s="6"/>
@@ -12536,7 +12539,7 @@
       <c r="S365" s="6"/>
       <c r="T365" s="6"/>
     </row>
-    <row r="366" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B366" s="5"/>
       <c r="C366" s="6"/>
       <c r="D366" s="6"/>
@@ -12557,7 +12560,7 @@
       <c r="S366" s="6"/>
       <c r="T366" s="6"/>
     </row>
-    <row r="367" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B367" s="5"/>
       <c r="C367" s="6"/>
       <c r="D367" s="6"/>
@@ -12578,7 +12581,7 @@
       <c r="S367" s="6"/>
       <c r="T367" s="6"/>
     </row>
-    <row r="368" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B368" s="5"/>
       <c r="C368" s="6"/>
       <c r="D368" s="6"/>
@@ -12599,7 +12602,7 @@
       <c r="S368" s="6"/>
       <c r="T368" s="6"/>
     </row>
-    <row r="369" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B369" s="5"/>
       <c r="C369" s="6"/>
       <c r="D369" s="6"/>
@@ -12620,7 +12623,7 @@
       <c r="S369" s="6"/>
       <c r="T369" s="6"/>
     </row>
-    <row r="370" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B370" s="5"/>
       <c r="C370" s="6"/>
       <c r="D370" s="6"/>
@@ -12641,7 +12644,7 @@
       <c r="S370" s="6"/>
       <c r="T370" s="6"/>
     </row>
-    <row r="371" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B371" s="5"/>
       <c r="C371" s="6"/>
       <c r="D371" s="6"/>
@@ -12662,7 +12665,7 @@
       <c r="S371" s="6"/>
       <c r="T371" s="6"/>
     </row>
-    <row r="372" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B372" s="5"/>
       <c r="C372" s="6"/>
       <c r="D372" s="6"/>
@@ -12683,7 +12686,7 @@
       <c r="S372" s="6"/>
       <c r="T372" s="6"/>
     </row>
-    <row r="373" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B373" s="5"/>
       <c r="C373" s="6"/>
       <c r="D373" s="6"/>
@@ -12704,7 +12707,7 @@
       <c r="S373" s="6"/>
       <c r="T373" s="6"/>
     </row>
-    <row r="374" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B374" s="5"/>
       <c r="C374" s="6"/>
       <c r="D374" s="6"/>
@@ -12725,7 +12728,7 @@
       <c r="S374" s="6"/>
       <c r="T374" s="6"/>
     </row>
-    <row r="375" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B375" s="5"/>
       <c r="C375" s="6"/>
       <c r="D375" s="6"/>
@@ -12746,7 +12749,7 @@
       <c r="S375" s="6"/>
       <c r="T375" s="6"/>
     </row>
-    <row r="376" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B376" s="5"/>
       <c r="C376" s="6"/>
       <c r="D376" s="6"/>
@@ -12767,7 +12770,7 @@
       <c r="S376" s="6"/>
       <c r="T376" s="6"/>
     </row>
-    <row r="377" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B377" s="5"/>
       <c r="C377" s="6"/>
       <c r="D377" s="6"/>
@@ -12788,7 +12791,7 @@
       <c r="S377" s="6"/>
       <c r="T377" s="6"/>
     </row>
-    <row r="378" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B378" s="5"/>
       <c r="C378" s="6"/>
       <c r="D378" s="6"/>
@@ -12809,7 +12812,7 @@
       <c r="S378" s="6"/>
       <c r="T378" s="6"/>
     </row>
-    <row r="379" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B379" s="5"/>
       <c r="C379" s="6"/>
       <c r="D379" s="6"/>
@@ -12830,7 +12833,7 @@
       <c r="S379" s="6"/>
       <c r="T379" s="6"/>
     </row>
-    <row r="380" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B380" s="5"/>
       <c r="C380" s="6"/>
       <c r="D380" s="6"/>
@@ -12851,7 +12854,7 @@
       <c r="S380" s="6"/>
       <c r="T380" s="6"/>
     </row>
-    <row r="381" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B381" s="5"/>
       <c r="C381" s="6"/>
       <c r="D381" s="6"/>
@@ -12872,7 +12875,7 @@
       <c r="S381" s="6"/>
       <c r="T381" s="6"/>
     </row>
-    <row r="382" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B382" s="5"/>
       <c r="C382" s="6"/>
       <c r="D382" s="6"/>
@@ -12893,7 +12896,7 @@
       <c r="S382" s="6"/>
       <c r="T382" s="6"/>
     </row>
-    <row r="383" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B383" s="5"/>
       <c r="C383" s="6"/>
       <c r="D383" s="6"/>
@@ -12914,7 +12917,7 @@
       <c r="S383" s="6"/>
       <c r="T383" s="6"/>
     </row>
-    <row r="384" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B384" s="5"/>
       <c r="C384" s="6"/>
       <c r="D384" s="6"/>
@@ -12935,7 +12938,7 @@
       <c r="S384" s="6"/>
       <c r="T384" s="6"/>
     </row>
-    <row r="385" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B385" s="5"/>
       <c r="C385" s="6"/>
       <c r="D385" s="6"/>
@@ -12956,7 +12959,7 @@
       <c r="S385" s="6"/>
       <c r="T385" s="6"/>
     </row>
-    <row r="386" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B386" s="5"/>
       <c r="C386" s="6"/>
       <c r="D386" s="6"/>
@@ -12977,7 +12980,7 @@
       <c r="S386" s="6"/>
       <c r="T386" s="6"/>
     </row>
-    <row r="387" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B387" s="5"/>
       <c r="C387" s="6"/>
       <c r="D387" s="6"/>
@@ -12998,7 +13001,7 @@
       <c r="S387" s="6"/>
       <c r="T387" s="6"/>
     </row>
-    <row r="388" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B388" s="5"/>
       <c r="C388" s="6"/>
       <c r="D388" s="6"/>
@@ -13019,7 +13022,7 @@
       <c r="S388" s="6"/>
       <c r="T388" s="6"/>
     </row>
-    <row r="389" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B389" s="5"/>
       <c r="C389" s="6"/>
       <c r="D389" s="6"/>
@@ -13040,7 +13043,7 @@
       <c r="S389" s="6"/>
       <c r="T389" s="6"/>
     </row>
-    <row r="390" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B390" s="5"/>
       <c r="C390" s="6"/>
       <c r="D390" s="6"/>
@@ -13061,7 +13064,7 @@
       <c r="S390" s="6"/>
       <c r="T390" s="6"/>
     </row>
-    <row r="391" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B391" s="5"/>
       <c r="C391" s="6"/>
       <c r="D391" s="6"/>
@@ -13082,7 +13085,7 @@
       <c r="S391" s="6"/>
       <c r="T391" s="6"/>
     </row>
-    <row r="392" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B392" s="5"/>
       <c r="C392" s="6"/>
       <c r="D392" s="6"/>
@@ -13103,7 +13106,7 @@
       <c r="S392" s="6"/>
       <c r="T392" s="6"/>
     </row>
-    <row r="393" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B393" s="5"/>
       <c r="C393" s="6"/>
       <c r="D393" s="6"/>
@@ -13124,7 +13127,7 @@
       <c r="S393" s="6"/>
       <c r="T393" s="6"/>
     </row>
-    <row r="394" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B394" s="5"/>
       <c r="C394" s="6"/>
       <c r="D394" s="6"/>
@@ -13145,7 +13148,7 @@
       <c r="S394" s="6"/>
       <c r="T394" s="6"/>
     </row>
-    <row r="395" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B395" s="5"/>
       <c r="C395" s="6"/>
       <c r="D395" s="6"/>
@@ -13166,7 +13169,7 @@
       <c r="S395" s="6"/>
       <c r="T395" s="6"/>
     </row>
-    <row r="396" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B396" s="5"/>
       <c r="C396" s="6"/>
       <c r="D396" s="6"/>
@@ -13202,9 +13205,9 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>333</v>
       </c>
@@ -13242,7 +13245,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13280,21 +13283,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>305</v>
       </c>
       <c r="C3">
-        <v>9912</v>
+        <v>9913</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F3" t="s">
         <v>309</v>
@@ -13306,57 +13309,95 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="K3" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="L3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>305</v>
       </c>
       <c r="C4">
-        <v>9913</v>
+        <v>6237</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="K4" t="s">
-        <v>162</v>
+        <v>368</v>
       </c>
       <c r="L4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5">
+        <v>6474</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>209</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B13" s="7" t="s">
         <v>339</v>
       </c>
@@ -13373,87 +13414,171 @@
         <v>343</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>218</v>
+      </c>
+      <c r="F16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>218</v>
+      </c>
+      <c r="F20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="7" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>225</v>
+      </c>
+      <c r="E34" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C35" t="s">
+        <v>209</v>
+      </c>
+      <c r="E35" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>225</v>
+      </c>
+      <c r="E36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>225</v>
+      </c>
+      <c r="E38" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C39" t="s">
+        <v>209</v>
+      </c>
+      <c r="E39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>360</v>
       </c>
@@ -13463,22 +13588,16 @@
       <c r="D46" t="s">
         <v>175</v>
       </c>
-      <c r="E46" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
         <v>177</v>
       </c>
       <c r="D47" t="s">
         <v>177</v>
       </c>
-      <c r="E47" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>361</v>
       </c>
@@ -13488,22 +13607,16 @@
       <c r="D48" t="s">
         <v>175</v>
       </c>
-      <c r="E48" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
         <v>177</v>
       </c>
       <c r="D49" t="s">
         <v>177</v>
       </c>
-      <c r="E49" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>362</v>
       </c>
@@ -13513,22 +13626,16 @@
       <c r="D50" t="s">
         <v>175</v>
       </c>
-      <c r="E50" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>177</v>
       </c>
       <c r="D51" t="s">
         <v>177</v>
       </c>
-      <c r="E51" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>363</v>
       </c>
@@ -13538,28 +13645,22 @@
       <c r="D52" t="s">
         <v>175</v>
       </c>
-      <c r="E52" t="s">
-        <v>176</v>
-      </c>
       <c r="F52" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
         <v>177</v>
       </c>
       <c r="D53" t="s">
         <v>177</v>
       </c>
-      <c r="E53" t="s">
-        <v>209</v>
-      </c>
       <c r="F53" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>364</v>
       </c>
@@ -13567,22 +13668,22 @@
         <v>311</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F55" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>367</v>
       </c>

--- a/LTT/bin/Debug/2022년도 1학기 강의시간표.xlsx
+++ b/LTT/bin/Debug/2022년도 1학기 강의시간표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b519e6645e706bc/개발/LTT/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2400" documentId="11_0CCC3DBF2E70530EDE75372E873A3997D7FBEC92" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB3D0A66-6256-498E-BC7F-389D4B4F4492}"/>
+  <xr:revisionPtr revIDLastSave="2888" documentId="11_0CCC3DBF2E70530EDE75372E873A3997D7FBEC92" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E0A3AB7-79EF-4E79-BF7C-462465959DAE}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2140" windowWidth="18720" windowHeight="11740" tabRatio="194" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="194" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="전체강의" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="368">
   <si>
     <t>졸업연구및진로1</t>
   </si>
@@ -1175,9 +1175,6 @@
   <si>
     <t>20:00~20:30</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Abolghasem Sadeghi-Niaraki</t>
   </si>
 </sst>
 </file>
@@ -1594,19 +1591,19 @@
       <selection activeCell="I166" sqref="I166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.08203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="23.08203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.58203125" style="4"/>
-    <col min="9" max="9" width="32.08203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="23.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="4"/>
+    <col min="9" max="9" width="32.125" style="4" customWidth="1"/>
     <col min="10" max="10" width="15" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.83203125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.58203125" style="4"/>
+    <col min="11" max="11" width="20.875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="8.625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>317</v>
       </c>
@@ -1644,7 +1641,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1682,7 +1679,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1720,7 +1717,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1758,7 +1755,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1796,7 +1793,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1834,7 +1831,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1872,7 +1869,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1910,7 +1907,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1948,7 +1945,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1986,7 +1983,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2024,7 +2021,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2062,7 +2059,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2100,7 +2097,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2138,7 +2135,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2176,7 +2173,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2214,7 +2211,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2252,7 +2249,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2290,7 +2287,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2328,7 +2325,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2366,7 +2363,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2404,7 +2401,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2442,7 +2439,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2480,7 +2477,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2518,7 +2515,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2556,7 +2553,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2594,7 +2591,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2632,7 +2629,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2670,7 +2667,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2708,7 +2705,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2746,7 +2743,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2784,7 +2781,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2822,7 +2819,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2860,7 +2857,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2898,7 +2895,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2936,7 +2933,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2974,7 +2971,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3012,7 +3009,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3050,7 +3047,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3088,7 +3085,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3126,7 +3123,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3164,7 +3161,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3202,7 +3199,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -3240,7 +3237,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -3278,7 +3275,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -3316,7 +3313,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -3354,7 +3351,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -3392,7 +3389,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -3430,7 +3427,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -3464,7 +3461,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -3502,7 +3499,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -3540,7 +3537,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -3578,7 +3575,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -3616,7 +3613,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -3654,7 +3651,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -3692,7 +3689,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -3730,7 +3727,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -3768,7 +3765,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3806,7 +3803,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -3844,7 +3841,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -3882,7 +3879,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -3920,7 +3917,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -3958,7 +3955,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -3996,7 +3993,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -4034,7 +4031,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -4072,7 +4069,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -4110,7 +4107,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -4148,7 +4145,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -4186,7 +4183,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -4224,7 +4221,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -4262,7 +4259,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -4300,7 +4297,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -4338,7 +4335,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -4376,7 +4373,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -4414,7 +4411,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -4452,7 +4449,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -4490,7 +4487,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -4528,7 +4525,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -4566,7 +4563,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -4604,7 +4601,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -4642,7 +4639,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -4680,7 +4677,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -4716,7 +4713,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -4752,7 +4749,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -4788,7 +4785,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -4824,7 +4821,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -4860,7 +4857,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -4896,7 +4893,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -4934,7 +4931,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -4972,7 +4969,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -5010,7 +5007,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -5048,7 +5045,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -5086,7 +5083,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -5124,7 +5121,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -5162,7 +5159,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -5200,7 +5197,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -5238,7 +5235,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -5276,7 +5273,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -5314,7 +5311,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -5352,7 +5349,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -5390,7 +5387,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -5428,7 +5425,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -5466,7 +5463,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -5504,7 +5501,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -5542,7 +5539,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -5580,7 +5577,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -5618,7 +5615,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -5656,7 +5653,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -5694,7 +5691,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -5732,7 +5729,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -5770,7 +5767,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -5808,7 +5805,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -5846,7 +5843,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -5884,7 +5881,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -5922,7 +5919,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -5960,7 +5957,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -5998,7 +5995,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -6036,7 +6033,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -6074,7 +6071,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -6112,7 +6109,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -6150,7 +6147,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -6188,7 +6185,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -6226,7 +6223,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -6264,7 +6261,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -6302,7 +6299,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -6340,7 +6337,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -6378,7 +6375,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -6416,7 +6413,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -6454,7 +6451,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -6492,7 +6489,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -6530,7 +6527,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -6568,7 +6565,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -6606,7 +6603,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -6644,7 +6641,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -6682,7 +6679,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -6720,7 +6717,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -6758,7 +6755,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -6796,7 +6793,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -6834,7 +6831,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -6872,7 +6869,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -6910,7 +6907,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -6948,7 +6945,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -6986,7 +6983,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -7024,7 +7021,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -7062,7 +7059,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -7100,7 +7097,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -7138,7 +7135,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -7176,7 +7173,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -7214,7 +7211,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -7252,7 +7249,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -7290,7 +7287,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -7328,7 +7325,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -7366,7 +7363,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -7404,7 +7401,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -7442,7 +7439,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -7480,7 +7477,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -7518,7 +7515,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -7556,7 +7553,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -7594,7 +7591,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -7632,7 +7629,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -7670,7 +7667,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -7708,7 +7705,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -7746,7 +7743,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -7784,7 +7781,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -7822,7 +7819,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -7860,7 +7857,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -7898,7 +7895,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -7936,7 +7933,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -7974,7 +7971,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -8012,7 +8009,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -8050,7 +8047,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -8088,7 +8085,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -8134,7 +8131,7 @@
       <c r="S172" s="6"/>
       <c r="T172" s="6"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -8180,7 +8177,7 @@
       <c r="S173" s="6"/>
       <c r="T173" s="6"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -8226,7 +8223,7 @@
       <c r="S174" s="6"/>
       <c r="T174" s="6"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -8272,7 +8269,7 @@
       <c r="S175" s="6"/>
       <c r="T175" s="6"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -8318,7 +8315,7 @@
       <c r="S176" s="6"/>
       <c r="T176" s="6"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -8364,7 +8361,7 @@
       <c r="S177" s="6"/>
       <c r="T177" s="6"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -8410,7 +8407,7 @@
       <c r="S178" s="6"/>
       <c r="T178" s="6"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -8456,7 +8453,7 @@
       <c r="S179" s="6"/>
       <c r="T179" s="6"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -8502,7 +8499,7 @@
       <c r="S180" s="6"/>
       <c r="T180" s="6"/>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -8548,7 +8545,7 @@
       <c r="S181" s="6"/>
       <c r="T181" s="6"/>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -8594,7 +8591,7 @@
       <c r="S182" s="6"/>
       <c r="T182" s="6"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -8640,7 +8637,7 @@
       <c r="S183" s="6"/>
       <c r="T183" s="6"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -8684,7 +8681,7 @@
       <c r="S184" s="6"/>
       <c r="T184" s="6"/>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -8728,7 +8725,7 @@
       <c r="S185" s="6"/>
       <c r="T185" s="6"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="5"/>
       <c r="C186" s="6"/>
@@ -8750,7 +8747,7 @@
       <c r="S186" s="6"/>
       <c r="T186" s="6"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="5"/>
       <c r="C187" s="6"/>
@@ -8772,7 +8769,7 @@
       <c r="S187" s="6"/>
       <c r="T187" s="6"/>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="5"/>
       <c r="C188" s="6"/>
@@ -8794,7 +8791,7 @@
       <c r="S188" s="6"/>
       <c r="T188" s="6"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
       <c r="B189" s="5"/>
       <c r="C189" s="6"/>
@@ -8816,7 +8813,7 @@
       <c r="S189" s="6"/>
       <c r="T189" s="6"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="5"/>
       <c r="C190" s="6"/>
@@ -8838,7 +8835,7 @@
       <c r="S190" s="6"/>
       <c r="T190" s="6"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="5"/>
       <c r="C191" s="6"/>
@@ -8860,7 +8857,7 @@
       <c r="S191" s="6"/>
       <c r="T191" s="6"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="5"/>
       <c r="C192" s="6"/>
@@ -8882,7 +8879,7 @@
       <c r="S192" s="6"/>
       <c r="T192" s="6"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="5"/>
       <c r="C193" s="6"/>
@@ -8904,7 +8901,7 @@
       <c r="S193" s="6"/>
       <c r="T193" s="6"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="5"/>
       <c r="C194" s="6"/>
@@ -8926,7 +8923,7 @@
       <c r="S194" s="6"/>
       <c r="T194" s="6"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="5"/>
       <c r="C195" s="6"/>
@@ -8948,7 +8945,7 @@
       <c r="S195" s="6"/>
       <c r="T195" s="6"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="5"/>
       <c r="C196" s="6"/>
@@ -8970,7 +8967,7 @@
       <c r="S196" s="6"/>
       <c r="T196" s="6"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="5"/>
       <c r="C197" s="6"/>
@@ -8992,7 +8989,7 @@
       <c r="S197" s="6"/>
       <c r="T197" s="6"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="5"/>
       <c r="C198" s="6"/>
@@ -9014,7 +9011,7 @@
       <c r="S198" s="6"/>
       <c r="T198" s="6"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="5"/>
       <c r="C199" s="6"/>
@@ -9036,7 +9033,7 @@
       <c r="S199" s="6"/>
       <c r="T199" s="6"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="5"/>
       <c r="C200" s="6"/>
@@ -9058,7 +9055,7 @@
       <c r="S200" s="6"/>
       <c r="T200" s="6"/>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
       <c r="B201" s="5"/>
       <c r="C201" s="6"/>
@@ -9080,7 +9077,7 @@
       <c r="S201" s="6"/>
       <c r="T201" s="6"/>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
       <c r="B202" s="5"/>
       <c r="C202" s="6"/>
@@ -9102,7 +9099,7 @@
       <c r="S202" s="6"/>
       <c r="T202" s="6"/>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
       <c r="B203" s="5"/>
       <c r="C203" s="6"/>
@@ -9124,7 +9121,7 @@
       <c r="S203" s="6"/>
       <c r="T203" s="6"/>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="B204" s="5"/>
       <c r="C204" s="6"/>
@@ -9146,7 +9143,7 @@
       <c r="S204" s="6"/>
       <c r="T204" s="6"/>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
       <c r="B205" s="5"/>
       <c r="C205" s="6"/>
@@ -9168,7 +9165,7 @@
       <c r="S205" s="6"/>
       <c r="T205" s="6"/>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="5"/>
       <c r="C206" s="6"/>
@@ -9190,7 +9187,7 @@
       <c r="S206" s="6"/>
       <c r="T206" s="6"/>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
       <c r="B207" s="5"/>
       <c r="C207" s="6"/>
@@ -9212,7 +9209,7 @@
       <c r="S207" s="6"/>
       <c r="T207" s="6"/>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
       <c r="B208" s="5"/>
       <c r="C208" s="6"/>
@@ -9234,7 +9231,7 @@
       <c r="S208" s="6"/>
       <c r="T208" s="6"/>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
       <c r="B209" s="5"/>
       <c r="C209" s="6"/>
@@ -9256,7 +9253,7 @@
       <c r="S209" s="6"/>
       <c r="T209" s="6"/>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
       <c r="B210" s="5"/>
       <c r="C210" s="6"/>
@@ -9278,7 +9275,7 @@
       <c r="S210" s="6"/>
       <c r="T210" s="6"/>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
       <c r="B211" s="5"/>
       <c r="C211" s="6"/>
@@ -9300,7 +9297,7 @@
       <c r="S211" s="6"/>
       <c r="T211" s="6"/>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
       <c r="B212" s="5"/>
       <c r="C212" s="6"/>
@@ -9322,7 +9319,7 @@
       <c r="S212" s="6"/>
       <c r="T212" s="6"/>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
       <c r="B213" s="5"/>
       <c r="C213" s="6"/>
@@ -9344,7 +9341,7 @@
       <c r="S213" s="6"/>
       <c r="T213" s="6"/>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
       <c r="B214" s="5"/>
       <c r="C214" s="6"/>
@@ -9366,7 +9363,7 @@
       <c r="S214" s="6"/>
       <c r="T214" s="6"/>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
       <c r="B215" s="5"/>
       <c r="C215" s="6"/>
@@ -9388,7 +9385,7 @@
       <c r="S215" s="6"/>
       <c r="T215" s="6"/>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
       <c r="B216" s="5"/>
       <c r="C216" s="6"/>
@@ -9410,7 +9407,7 @@
       <c r="S216" s="6"/>
       <c r="T216" s="6"/>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B217" s="5"/>
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
@@ -9431,7 +9428,7 @@
       <c r="S217" s="6"/>
       <c r="T217" s="6"/>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B218" s="5"/>
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
@@ -9452,7 +9449,7 @@
       <c r="S218" s="6"/>
       <c r="T218" s="6"/>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B219" s="5"/>
       <c r="C219" s="6"/>
       <c r="D219" s="6"/>
@@ -9473,7 +9470,7 @@
       <c r="S219" s="6"/>
       <c r="T219" s="6"/>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B220" s="5"/>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
@@ -9494,7 +9491,7 @@
       <c r="S220" s="6"/>
       <c r="T220" s="6"/>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B221" s="5"/>
       <c r="C221" s="6"/>
       <c r="D221" s="6"/>
@@ -9515,7 +9512,7 @@
       <c r="S221" s="6"/>
       <c r="T221" s="6"/>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B222" s="5"/>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
@@ -9536,7 +9533,7 @@
       <c r="S222" s="6"/>
       <c r="T222" s="6"/>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B223" s="5"/>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
@@ -9557,7 +9554,7 @@
       <c r="S223" s="6"/>
       <c r="T223" s="6"/>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B224" s="5"/>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
@@ -9578,7 +9575,7 @@
       <c r="S224" s="6"/>
       <c r="T224" s="6"/>
     </row>
-    <row r="225" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="225" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B225" s="5"/>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
@@ -9599,7 +9596,7 @@
       <c r="S225" s="6"/>
       <c r="T225" s="6"/>
     </row>
-    <row r="226" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="226" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B226" s="5"/>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
@@ -9620,7 +9617,7 @@
       <c r="S226" s="6"/>
       <c r="T226" s="6"/>
     </row>
-    <row r="227" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="227" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B227" s="5"/>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
@@ -9641,7 +9638,7 @@
       <c r="S227" s="6"/>
       <c r="T227" s="6"/>
     </row>
-    <row r="228" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="228" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B228" s="5"/>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
@@ -9662,7 +9659,7 @@
       <c r="S228" s="6"/>
       <c r="T228" s="6"/>
     </row>
-    <row r="229" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="229" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B229" s="5"/>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
@@ -9683,7 +9680,7 @@
       <c r="S229" s="6"/>
       <c r="T229" s="6"/>
     </row>
-    <row r="230" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="230" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B230" s="5"/>
       <c r="C230" s="6"/>
       <c r="D230" s="6"/>
@@ -9704,7 +9701,7 @@
       <c r="S230" s="6"/>
       <c r="T230" s="6"/>
     </row>
-    <row r="231" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="231" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B231" s="5"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
@@ -9725,7 +9722,7 @@
       <c r="S231" s="6"/>
       <c r="T231" s="6"/>
     </row>
-    <row r="232" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="232" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B232" s="5"/>
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
@@ -9746,7 +9743,7 @@
       <c r="S232" s="6"/>
       <c r="T232" s="6"/>
     </row>
-    <row r="233" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="233" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B233" s="5"/>
       <c r="C233" s="6"/>
       <c r="D233" s="6"/>
@@ -9767,7 +9764,7 @@
       <c r="S233" s="6"/>
       <c r="T233" s="6"/>
     </row>
-    <row r="234" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="234" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B234" s="5"/>
       <c r="C234" s="6"/>
       <c r="D234" s="6"/>
@@ -9788,7 +9785,7 @@
       <c r="S234" s="6"/>
       <c r="T234" s="6"/>
     </row>
-    <row r="235" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="235" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B235" s="5"/>
       <c r="C235" s="6"/>
       <c r="D235" s="6"/>
@@ -9809,7 +9806,7 @@
       <c r="S235" s="6"/>
       <c r="T235" s="6"/>
     </row>
-    <row r="236" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="236" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B236" s="5"/>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
@@ -9830,7 +9827,7 @@
       <c r="S236" s="6"/>
       <c r="T236" s="6"/>
     </row>
-    <row r="237" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="237" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B237" s="5"/>
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
@@ -9851,7 +9848,7 @@
       <c r="S237" s="6"/>
       <c r="T237" s="6"/>
     </row>
-    <row r="238" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="238" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B238" s="5"/>
       <c r="C238" s="6"/>
       <c r="D238" s="6"/>
@@ -9872,7 +9869,7 @@
       <c r="S238" s="6"/>
       <c r="T238" s="6"/>
     </row>
-    <row r="239" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="239" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B239" s="5"/>
       <c r="C239" s="6"/>
       <c r="D239" s="6"/>
@@ -9893,7 +9890,7 @@
       <c r="S239" s="6"/>
       <c r="T239" s="6"/>
     </row>
-    <row r="240" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="240" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B240" s="5"/>
       <c r="C240" s="6"/>
       <c r="D240" s="6"/>
@@ -9914,7 +9911,7 @@
       <c r="S240" s="6"/>
       <c r="T240" s="6"/>
     </row>
-    <row r="241" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="241" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B241" s="5"/>
       <c r="C241" s="6"/>
       <c r="D241" s="6"/>
@@ -9935,7 +9932,7 @@
       <c r="S241" s="6"/>
       <c r="T241" s="6"/>
     </row>
-    <row r="242" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="242" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B242" s="5"/>
       <c r="C242" s="6"/>
       <c r="D242" s="6"/>
@@ -9956,7 +9953,7 @@
       <c r="S242" s="6"/>
       <c r="T242" s="6"/>
     </row>
-    <row r="243" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="243" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B243" s="5"/>
       <c r="C243" s="6"/>
       <c r="D243" s="6"/>
@@ -9977,7 +9974,7 @@
       <c r="S243" s="6"/>
       <c r="T243" s="6"/>
     </row>
-    <row r="244" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="244" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B244" s="5"/>
       <c r="C244" s="6"/>
       <c r="D244" s="6"/>
@@ -9998,7 +9995,7 @@
       <c r="S244" s="6"/>
       <c r="T244" s="6"/>
     </row>
-    <row r="245" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="245" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B245" s="5"/>
       <c r="C245" s="6"/>
       <c r="D245" s="6"/>
@@ -10019,7 +10016,7 @@
       <c r="S245" s="6"/>
       <c r="T245" s="6"/>
     </row>
-    <row r="246" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="246" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B246" s="5"/>
       <c r="C246" s="6"/>
       <c r="D246" s="6"/>
@@ -10040,7 +10037,7 @@
       <c r="S246" s="6"/>
       <c r="T246" s="6"/>
     </row>
-    <row r="247" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="247" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B247" s="5"/>
       <c r="C247" s="6"/>
       <c r="D247" s="6"/>
@@ -10061,7 +10058,7 @@
       <c r="S247" s="6"/>
       <c r="T247" s="6"/>
     </row>
-    <row r="248" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="248" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B248" s="5"/>
       <c r="C248" s="6"/>
       <c r="D248" s="6"/>
@@ -10082,7 +10079,7 @@
       <c r="S248" s="6"/>
       <c r="T248" s="6"/>
     </row>
-    <row r="249" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="249" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B249" s="5"/>
       <c r="C249" s="6"/>
       <c r="D249" s="6"/>
@@ -10103,7 +10100,7 @@
       <c r="S249" s="6"/>
       <c r="T249" s="6"/>
     </row>
-    <row r="250" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="250" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B250" s="5"/>
       <c r="C250" s="6"/>
       <c r="D250" s="6"/>
@@ -10124,7 +10121,7 @@
       <c r="S250" s="6"/>
       <c r="T250" s="6"/>
     </row>
-    <row r="251" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="251" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B251" s="5"/>
       <c r="C251" s="6"/>
       <c r="D251" s="6"/>
@@ -10145,7 +10142,7 @@
       <c r="S251" s="6"/>
       <c r="T251" s="6"/>
     </row>
-    <row r="252" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="252" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B252" s="5"/>
       <c r="C252" s="6"/>
       <c r="D252" s="6"/>
@@ -10166,7 +10163,7 @@
       <c r="S252" s="6"/>
       <c r="T252" s="6"/>
     </row>
-    <row r="253" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="253" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B253" s="5"/>
       <c r="C253" s="6"/>
       <c r="D253" s="6"/>
@@ -10187,7 +10184,7 @@
       <c r="S253" s="6"/>
       <c r="T253" s="6"/>
     </row>
-    <row r="254" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="254" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B254" s="5"/>
       <c r="C254" s="6"/>
       <c r="D254" s="6"/>
@@ -10208,7 +10205,7 @@
       <c r="S254" s="6"/>
       <c r="T254" s="6"/>
     </row>
-    <row r="255" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="255" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B255" s="5"/>
       <c r="C255" s="6"/>
       <c r="D255" s="6"/>
@@ -10229,7 +10226,7 @@
       <c r="S255" s="6"/>
       <c r="T255" s="6"/>
     </row>
-    <row r="256" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="256" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B256" s="5"/>
       <c r="C256" s="6"/>
       <c r="D256" s="6"/>
@@ -10250,7 +10247,7 @@
       <c r="S256" s="6"/>
       <c r="T256" s="6"/>
     </row>
-    <row r="257" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="257" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B257" s="5"/>
       <c r="C257" s="6"/>
       <c r="D257" s="6"/>
@@ -10271,7 +10268,7 @@
       <c r="S257" s="6"/>
       <c r="T257" s="6"/>
     </row>
-    <row r="258" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="258" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B258" s="5"/>
       <c r="C258" s="6"/>
       <c r="D258" s="6"/>
@@ -10292,7 +10289,7 @@
       <c r="S258" s="6"/>
       <c r="T258" s="6"/>
     </row>
-    <row r="259" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="259" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B259" s="5"/>
       <c r="C259" s="6"/>
       <c r="D259" s="6"/>
@@ -10313,7 +10310,7 @@
       <c r="S259" s="6"/>
       <c r="T259" s="6"/>
     </row>
-    <row r="260" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="260" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B260" s="5"/>
       <c r="C260" s="6"/>
       <c r="D260" s="6"/>
@@ -10334,7 +10331,7 @@
       <c r="S260" s="6"/>
       <c r="T260" s="6"/>
     </row>
-    <row r="261" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="261" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B261" s="5"/>
       <c r="C261" s="6"/>
       <c r="D261" s="6"/>
@@ -10355,7 +10352,7 @@
       <c r="S261" s="6"/>
       <c r="T261" s="6"/>
     </row>
-    <row r="262" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="262" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B262" s="5"/>
       <c r="C262" s="6"/>
       <c r="D262" s="6"/>
@@ -10376,7 +10373,7 @@
       <c r="S262" s="6"/>
       <c r="T262" s="6"/>
     </row>
-    <row r="263" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="263" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B263" s="5"/>
       <c r="C263" s="6"/>
       <c r="D263" s="6"/>
@@ -10397,7 +10394,7 @@
       <c r="S263" s="6"/>
       <c r="T263" s="6"/>
     </row>
-    <row r="264" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="264" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B264" s="5"/>
       <c r="C264" s="6"/>
       <c r="D264" s="6"/>
@@ -10418,7 +10415,7 @@
       <c r="S264" s="6"/>
       <c r="T264" s="6"/>
     </row>
-    <row r="265" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="265" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B265" s="5"/>
       <c r="C265" s="6"/>
       <c r="D265" s="6"/>
@@ -10439,7 +10436,7 @@
       <c r="S265" s="6"/>
       <c r="T265" s="6"/>
     </row>
-    <row r="266" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="266" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B266" s="5"/>
       <c r="C266" s="6"/>
       <c r="D266" s="6"/>
@@ -10460,7 +10457,7 @@
       <c r="S266" s="6"/>
       <c r="T266" s="6"/>
     </row>
-    <row r="267" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="267" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B267" s="5"/>
       <c r="C267" s="6"/>
       <c r="D267" s="6"/>
@@ -10481,7 +10478,7 @@
       <c r="S267" s="6"/>
       <c r="T267" s="6"/>
     </row>
-    <row r="268" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="268" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B268" s="5"/>
       <c r="C268" s="6"/>
       <c r="D268" s="6"/>
@@ -10502,7 +10499,7 @@
       <c r="S268" s="6"/>
       <c r="T268" s="6"/>
     </row>
-    <row r="269" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="269" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B269" s="5"/>
       <c r="C269" s="6"/>
       <c r="D269" s="6"/>
@@ -10523,7 +10520,7 @@
       <c r="S269" s="6"/>
       <c r="T269" s="6"/>
     </row>
-    <row r="270" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="270" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B270" s="5"/>
       <c r="C270" s="6"/>
       <c r="D270" s="6"/>
@@ -10544,7 +10541,7 @@
       <c r="S270" s="6"/>
       <c r="T270" s="6"/>
     </row>
-    <row r="271" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="271" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B271" s="5"/>
       <c r="C271" s="6"/>
       <c r="D271" s="6"/>
@@ -10565,7 +10562,7 @@
       <c r="S271" s="6"/>
       <c r="T271" s="6"/>
     </row>
-    <row r="272" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="272" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B272" s="5"/>
       <c r="C272" s="6"/>
       <c r="D272" s="6"/>
@@ -10586,7 +10583,7 @@
       <c r="S272" s="6"/>
       <c r="T272" s="6"/>
     </row>
-    <row r="273" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="273" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B273" s="5"/>
       <c r="C273" s="6"/>
       <c r="D273" s="6"/>
@@ -10607,7 +10604,7 @@
       <c r="S273" s="6"/>
       <c r="T273" s="6"/>
     </row>
-    <row r="274" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="274" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B274" s="5"/>
       <c r="C274" s="6"/>
       <c r="D274" s="6"/>
@@ -10628,7 +10625,7 @@
       <c r="S274" s="6"/>
       <c r="T274" s="6"/>
     </row>
-    <row r="275" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="275" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B275" s="5"/>
       <c r="C275" s="6"/>
       <c r="D275" s="6"/>
@@ -10649,7 +10646,7 @@
       <c r="S275" s="6"/>
       <c r="T275" s="6"/>
     </row>
-    <row r="276" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="276" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B276" s="5"/>
       <c r="C276" s="6"/>
       <c r="D276" s="6"/>
@@ -10670,7 +10667,7 @@
       <c r="S276" s="6"/>
       <c r="T276" s="6"/>
     </row>
-    <row r="277" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="277" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B277" s="5"/>
       <c r="C277" s="6"/>
       <c r="D277" s="6"/>
@@ -10691,7 +10688,7 @@
       <c r="S277" s="6"/>
       <c r="T277" s="6"/>
     </row>
-    <row r="278" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="278" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B278" s="5"/>
       <c r="C278" s="6"/>
       <c r="D278" s="6"/>
@@ -10712,7 +10709,7 @@
       <c r="S278" s="6"/>
       <c r="T278" s="6"/>
     </row>
-    <row r="279" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="279" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B279" s="5"/>
       <c r="C279" s="6"/>
       <c r="D279" s="6"/>
@@ -10733,7 +10730,7 @@
       <c r="S279" s="6"/>
       <c r="T279" s="6"/>
     </row>
-    <row r="280" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="280" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B280" s="5"/>
       <c r="C280" s="6"/>
       <c r="D280" s="6"/>
@@ -10754,7 +10751,7 @@
       <c r="S280" s="6"/>
       <c r="T280" s="6"/>
     </row>
-    <row r="281" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="281" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B281" s="5"/>
       <c r="C281" s="6"/>
       <c r="D281" s="6"/>
@@ -10775,7 +10772,7 @@
       <c r="S281" s="6"/>
       <c r="T281" s="6"/>
     </row>
-    <row r="282" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="282" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B282" s="5"/>
       <c r="C282" s="6"/>
       <c r="D282" s="6"/>
@@ -10796,7 +10793,7 @@
       <c r="S282" s="6"/>
       <c r="T282" s="6"/>
     </row>
-    <row r="283" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="283" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B283" s="5"/>
       <c r="C283" s="6"/>
       <c r="D283" s="6"/>
@@ -10817,7 +10814,7 @@
       <c r="S283" s="6"/>
       <c r="T283" s="6"/>
     </row>
-    <row r="284" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="284" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B284" s="5"/>
       <c r="C284" s="6"/>
       <c r="D284" s="6"/>
@@ -10838,7 +10835,7 @@
       <c r="S284" s="6"/>
       <c r="T284" s="6"/>
     </row>
-    <row r="285" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="285" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B285" s="5"/>
       <c r="C285" s="6"/>
       <c r="D285" s="6"/>
@@ -10859,7 +10856,7 @@
       <c r="S285" s="6"/>
       <c r="T285" s="6"/>
     </row>
-    <row r="286" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="286" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B286" s="5"/>
       <c r="C286" s="6"/>
       <c r="D286" s="6"/>
@@ -10880,7 +10877,7 @@
       <c r="S286" s="6"/>
       <c r="T286" s="6"/>
     </row>
-    <row r="287" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="287" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B287" s="5"/>
       <c r="C287" s="6"/>
       <c r="D287" s="6"/>
@@ -10901,7 +10898,7 @@
       <c r="S287" s="6"/>
       <c r="T287" s="6"/>
     </row>
-    <row r="288" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="288" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B288" s="5"/>
       <c r="C288" s="6"/>
       <c r="D288" s="6"/>
@@ -10922,7 +10919,7 @@
       <c r="S288" s="6"/>
       <c r="T288" s="6"/>
     </row>
-    <row r="289" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="289" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B289" s="5"/>
       <c r="C289" s="6"/>
       <c r="D289" s="6"/>
@@ -10943,7 +10940,7 @@
       <c r="S289" s="6"/>
       <c r="T289" s="6"/>
     </row>
-    <row r="290" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="290" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B290" s="5"/>
       <c r="C290" s="6"/>
       <c r="D290" s="6"/>
@@ -10964,7 +10961,7 @@
       <c r="S290" s="6"/>
       <c r="T290" s="6"/>
     </row>
-    <row r="291" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="291" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B291" s="5"/>
       <c r="C291" s="6"/>
       <c r="D291" s="6"/>
@@ -10985,7 +10982,7 @@
       <c r="S291" s="6"/>
       <c r="T291" s="6"/>
     </row>
-    <row r="292" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="292" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B292" s="5"/>
       <c r="C292" s="6"/>
       <c r="D292" s="6"/>
@@ -11006,7 +11003,7 @@
       <c r="S292" s="6"/>
       <c r="T292" s="6"/>
     </row>
-    <row r="293" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="293" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B293" s="5"/>
       <c r="C293" s="6"/>
       <c r="D293" s="6"/>
@@ -11027,7 +11024,7 @@
       <c r="S293" s="6"/>
       <c r="T293" s="6"/>
     </row>
-    <row r="294" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="294" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B294" s="5"/>
       <c r="C294" s="6"/>
       <c r="D294" s="6"/>
@@ -11048,7 +11045,7 @@
       <c r="S294" s="6"/>
       <c r="T294" s="6"/>
     </row>
-    <row r="295" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="295" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B295" s="5"/>
       <c r="C295" s="6"/>
       <c r="D295" s="6"/>
@@ -11069,7 +11066,7 @@
       <c r="S295" s="6"/>
       <c r="T295" s="6"/>
     </row>
-    <row r="296" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="296" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B296" s="5"/>
       <c r="C296" s="6"/>
       <c r="D296" s="6"/>
@@ -11090,7 +11087,7 @@
       <c r="S296" s="6"/>
       <c r="T296" s="6"/>
     </row>
-    <row r="297" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="297" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B297" s="5"/>
       <c r="C297" s="6"/>
       <c r="D297" s="6"/>
@@ -11111,7 +11108,7 @@
       <c r="S297" s="6"/>
       <c r="T297" s="6"/>
     </row>
-    <row r="298" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="298" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B298" s="5"/>
       <c r="C298" s="6"/>
       <c r="D298" s="6"/>
@@ -11132,7 +11129,7 @@
       <c r="S298" s="6"/>
       <c r="T298" s="6"/>
     </row>
-    <row r="299" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="299" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B299" s="5"/>
       <c r="C299" s="6"/>
       <c r="D299" s="6"/>
@@ -11153,7 +11150,7 @@
       <c r="S299" s="6"/>
       <c r="T299" s="6"/>
     </row>
-    <row r="300" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="300" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B300" s="5"/>
       <c r="C300" s="6"/>
       <c r="D300" s="6"/>
@@ -11174,7 +11171,7 @@
       <c r="S300" s="6"/>
       <c r="T300" s="6"/>
     </row>
-    <row r="301" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="301" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B301" s="5"/>
       <c r="C301" s="6"/>
       <c r="D301" s="6"/>
@@ -11195,7 +11192,7 @@
       <c r="S301" s="6"/>
       <c r="T301" s="6"/>
     </row>
-    <row r="302" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="302" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B302" s="5"/>
       <c r="C302" s="6"/>
       <c r="D302" s="6"/>
@@ -11216,7 +11213,7 @@
       <c r="S302" s="6"/>
       <c r="T302" s="6"/>
     </row>
-    <row r="303" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="303" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B303" s="5"/>
       <c r="C303" s="6"/>
       <c r="D303" s="6"/>
@@ -11237,7 +11234,7 @@
       <c r="S303" s="6"/>
       <c r="T303" s="6"/>
     </row>
-    <row r="304" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="304" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B304" s="5"/>
       <c r="C304" s="6"/>
       <c r="D304" s="6"/>
@@ -11258,7 +11255,7 @@
       <c r="S304" s="6"/>
       <c r="T304" s="6"/>
     </row>
-    <row r="305" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="305" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B305" s="5"/>
       <c r="C305" s="6"/>
       <c r="D305" s="6"/>
@@ -11279,7 +11276,7 @@
       <c r="S305" s="6"/>
       <c r="T305" s="6"/>
     </row>
-    <row r="306" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="306" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B306" s="5"/>
       <c r="C306" s="6"/>
       <c r="D306" s="6"/>
@@ -11300,7 +11297,7 @@
       <c r="S306" s="6"/>
       <c r="T306" s="6"/>
     </row>
-    <row r="307" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="307" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B307" s="5"/>
       <c r="C307" s="6"/>
       <c r="D307" s="6"/>
@@ -11321,7 +11318,7 @@
       <c r="S307" s="6"/>
       <c r="T307" s="6"/>
     </row>
-    <row r="308" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="308" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B308" s="5"/>
       <c r="C308" s="6"/>
       <c r="D308" s="6"/>
@@ -11342,7 +11339,7 @@
       <c r="S308" s="6"/>
       <c r="T308" s="6"/>
     </row>
-    <row r="309" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="309" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B309" s="5"/>
       <c r="C309" s="6"/>
       <c r="D309" s="6"/>
@@ -11363,7 +11360,7 @@
       <c r="S309" s="6"/>
       <c r="T309" s="6"/>
     </row>
-    <row r="310" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="310" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B310" s="5"/>
       <c r="C310" s="6"/>
       <c r="D310" s="6"/>
@@ -11384,7 +11381,7 @@
       <c r="S310" s="6"/>
       <c r="T310" s="6"/>
     </row>
-    <row r="311" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="311" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B311" s="5"/>
       <c r="C311" s="6"/>
       <c r="D311" s="6"/>
@@ -11405,7 +11402,7 @@
       <c r="S311" s="6"/>
       <c r="T311" s="6"/>
     </row>
-    <row r="312" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="312" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B312" s="5"/>
       <c r="C312" s="6"/>
       <c r="D312" s="6"/>
@@ -11426,7 +11423,7 @@
       <c r="S312" s="6"/>
       <c r="T312" s="6"/>
     </row>
-    <row r="313" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="313" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B313" s="5"/>
       <c r="C313" s="6"/>
       <c r="D313" s="6"/>
@@ -11447,7 +11444,7 @@
       <c r="S313" s="6"/>
       <c r="T313" s="6"/>
     </row>
-    <row r="314" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="314" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B314" s="5"/>
       <c r="C314" s="6"/>
       <c r="D314" s="6"/>
@@ -11468,7 +11465,7 @@
       <c r="S314" s="6"/>
       <c r="T314" s="6"/>
     </row>
-    <row r="315" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="315" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B315" s="5"/>
       <c r="C315" s="6"/>
       <c r="D315" s="6"/>
@@ -11489,7 +11486,7 @@
       <c r="S315" s="6"/>
       <c r="T315" s="6"/>
     </row>
-    <row r="316" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="316" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B316" s="5"/>
       <c r="C316" s="6"/>
       <c r="D316" s="6"/>
@@ -11510,7 +11507,7 @@
       <c r="S316" s="6"/>
       <c r="T316" s="6"/>
     </row>
-    <row r="317" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="317" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B317" s="5"/>
       <c r="C317" s="6"/>
       <c r="D317" s="6"/>
@@ -11531,7 +11528,7 @@
       <c r="S317" s="6"/>
       <c r="T317" s="6"/>
     </row>
-    <row r="318" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="318" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B318" s="5"/>
       <c r="C318" s="6"/>
       <c r="D318" s="6"/>
@@ -11552,7 +11549,7 @@
       <c r="S318" s="6"/>
       <c r="T318" s="6"/>
     </row>
-    <row r="319" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="319" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B319" s="5"/>
       <c r="C319" s="6"/>
       <c r="D319" s="6"/>
@@ -11573,7 +11570,7 @@
       <c r="S319" s="6"/>
       <c r="T319" s="6"/>
     </row>
-    <row r="320" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="320" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B320" s="5"/>
       <c r="C320" s="6"/>
       <c r="D320" s="6"/>
@@ -11594,7 +11591,7 @@
       <c r="S320" s="6"/>
       <c r="T320" s="6"/>
     </row>
-    <row r="321" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="321" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B321" s="5"/>
       <c r="C321" s="6"/>
       <c r="D321" s="6"/>
@@ -11615,7 +11612,7 @@
       <c r="S321" s="6"/>
       <c r="T321" s="6"/>
     </row>
-    <row r="322" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="322" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B322" s="5"/>
       <c r="C322" s="6"/>
       <c r="D322" s="6"/>
@@ -11636,7 +11633,7 @@
       <c r="S322" s="6"/>
       <c r="T322" s="6"/>
     </row>
-    <row r="323" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="323" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B323" s="5"/>
       <c r="C323" s="6"/>
       <c r="D323" s="6"/>
@@ -11657,7 +11654,7 @@
       <c r="S323" s="6"/>
       <c r="T323" s="6"/>
     </row>
-    <row r="324" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="324" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B324" s="5"/>
       <c r="C324" s="6"/>
       <c r="D324" s="6"/>
@@ -11678,7 +11675,7 @@
       <c r="S324" s="6"/>
       <c r="T324" s="6"/>
     </row>
-    <row r="325" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="325" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B325" s="5"/>
       <c r="C325" s="6"/>
       <c r="D325" s="6"/>
@@ -11699,7 +11696,7 @@
       <c r="S325" s="6"/>
       <c r="T325" s="6"/>
     </row>
-    <row r="326" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="326" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B326" s="5"/>
       <c r="C326" s="6"/>
       <c r="D326" s="6"/>
@@ -11720,7 +11717,7 @@
       <c r="S326" s="6"/>
       <c r="T326" s="6"/>
     </row>
-    <row r="327" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="327" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B327" s="5"/>
       <c r="C327" s="6"/>
       <c r="D327" s="6"/>
@@ -11741,7 +11738,7 @@
       <c r="S327" s="6"/>
       <c r="T327" s="6"/>
     </row>
-    <row r="328" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="328" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B328" s="5"/>
       <c r="C328" s="6"/>
       <c r="D328" s="6"/>
@@ -11762,7 +11759,7 @@
       <c r="S328" s="6"/>
       <c r="T328" s="6"/>
     </row>
-    <row r="329" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="329" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B329" s="5"/>
       <c r="C329" s="6"/>
       <c r="D329" s="6"/>
@@ -11783,7 +11780,7 @@
       <c r="S329" s="6"/>
       <c r="T329" s="6"/>
     </row>
-    <row r="330" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="330" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B330" s="5"/>
       <c r="C330" s="6"/>
       <c r="D330" s="6"/>
@@ -11804,7 +11801,7 @@
       <c r="S330" s="6"/>
       <c r="T330" s="6"/>
     </row>
-    <row r="331" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="331" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B331" s="5"/>
       <c r="C331" s="6"/>
       <c r="D331" s="6"/>
@@ -11825,7 +11822,7 @@
       <c r="S331" s="6"/>
       <c r="T331" s="6"/>
     </row>
-    <row r="332" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="332" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B332" s="5"/>
       <c r="C332" s="6"/>
       <c r="D332" s="6"/>
@@ -11846,7 +11843,7 @@
       <c r="S332" s="6"/>
       <c r="T332" s="6"/>
     </row>
-    <row r="333" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="333" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B333" s="5"/>
       <c r="C333" s="6"/>
       <c r="D333" s="6"/>
@@ -11867,7 +11864,7 @@
       <c r="S333" s="6"/>
       <c r="T333" s="6"/>
     </row>
-    <row r="334" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="334" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B334" s="5"/>
       <c r="C334" s="6"/>
       <c r="D334" s="6"/>
@@ -11888,7 +11885,7 @@
       <c r="S334" s="6"/>
       <c r="T334" s="6"/>
     </row>
-    <row r="335" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="335" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B335" s="5"/>
       <c r="C335" s="6"/>
       <c r="D335" s="6"/>
@@ -11909,7 +11906,7 @@
       <c r="S335" s="6"/>
       <c r="T335" s="6"/>
     </row>
-    <row r="336" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="336" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B336" s="5"/>
       <c r="C336" s="6"/>
       <c r="D336" s="6"/>
@@ -11930,7 +11927,7 @@
       <c r="S336" s="6"/>
       <c r="T336" s="6"/>
     </row>
-    <row r="337" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="337" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B337" s="5"/>
       <c r="C337" s="6"/>
       <c r="D337" s="6"/>
@@ -11951,7 +11948,7 @@
       <c r="S337" s="6"/>
       <c r="T337" s="6"/>
     </row>
-    <row r="338" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="338" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B338" s="5"/>
       <c r="C338" s="6"/>
       <c r="D338" s="6"/>
@@ -11972,7 +11969,7 @@
       <c r="S338" s="6"/>
       <c r="T338" s="6"/>
     </row>
-    <row r="339" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="339" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B339" s="5"/>
       <c r="C339" s="6"/>
       <c r="D339" s="6"/>
@@ -11993,7 +11990,7 @@
       <c r="S339" s="6"/>
       <c r="T339" s="6"/>
     </row>
-    <row r="340" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="340" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B340" s="5"/>
       <c r="C340" s="6"/>
       <c r="D340" s="6"/>
@@ -12014,7 +12011,7 @@
       <c r="S340" s="6"/>
       <c r="T340" s="6"/>
     </row>
-    <row r="341" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="341" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B341" s="5"/>
       <c r="C341" s="6"/>
       <c r="D341" s="6"/>
@@ -12035,7 +12032,7 @@
       <c r="S341" s="6"/>
       <c r="T341" s="6"/>
     </row>
-    <row r="342" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="342" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B342" s="5"/>
       <c r="C342" s="6"/>
       <c r="D342" s="6"/>
@@ -12056,7 +12053,7 @@
       <c r="S342" s="6"/>
       <c r="T342" s="6"/>
     </row>
-    <row r="343" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="343" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B343" s="5"/>
       <c r="C343" s="6"/>
       <c r="D343" s="6"/>
@@ -12077,7 +12074,7 @@
       <c r="S343" s="6"/>
       <c r="T343" s="6"/>
     </row>
-    <row r="344" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="344" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B344" s="5"/>
       <c r="C344" s="6"/>
       <c r="D344" s="6"/>
@@ -12098,7 +12095,7 @@
       <c r="S344" s="6"/>
       <c r="T344" s="6"/>
     </row>
-    <row r="345" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="345" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B345" s="5"/>
       <c r="C345" s="6"/>
       <c r="D345" s="6"/>
@@ -12119,7 +12116,7 @@
       <c r="S345" s="6"/>
       <c r="T345" s="6"/>
     </row>
-    <row r="346" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="346" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B346" s="5"/>
       <c r="C346" s="6"/>
       <c r="D346" s="6"/>
@@ -12140,7 +12137,7 @@
       <c r="S346" s="6"/>
       <c r="T346" s="6"/>
     </row>
-    <row r="347" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="347" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B347" s="5"/>
       <c r="C347" s="6"/>
       <c r="D347" s="6"/>
@@ -12161,7 +12158,7 @@
       <c r="S347" s="6"/>
       <c r="T347" s="6"/>
     </row>
-    <row r="348" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="348" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B348" s="5"/>
       <c r="C348" s="6"/>
       <c r="D348" s="6"/>
@@ -12182,7 +12179,7 @@
       <c r="S348" s="6"/>
       <c r="T348" s="6"/>
     </row>
-    <row r="349" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="349" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B349" s="5"/>
       <c r="C349" s="6"/>
       <c r="D349" s="6"/>
@@ -12203,7 +12200,7 @@
       <c r="S349" s="6"/>
       <c r="T349" s="6"/>
     </row>
-    <row r="350" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="350" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B350" s="5"/>
       <c r="C350" s="6"/>
       <c r="D350" s="6"/>
@@ -12224,7 +12221,7 @@
       <c r="S350" s="6"/>
       <c r="T350" s="6"/>
     </row>
-    <row r="351" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="351" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B351" s="5"/>
       <c r="C351" s="6"/>
       <c r="D351" s="6"/>
@@ -12245,7 +12242,7 @@
       <c r="S351" s="6"/>
       <c r="T351" s="6"/>
     </row>
-    <row r="352" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="352" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B352" s="5"/>
       <c r="C352" s="6"/>
       <c r="D352" s="6"/>
@@ -12266,7 +12263,7 @@
       <c r="S352" s="6"/>
       <c r="T352" s="6"/>
     </row>
-    <row r="353" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="353" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B353" s="5"/>
       <c r="C353" s="6"/>
       <c r="D353" s="6"/>
@@ -12287,7 +12284,7 @@
       <c r="S353" s="6"/>
       <c r="T353" s="6"/>
     </row>
-    <row r="354" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="354" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B354" s="5"/>
       <c r="C354" s="6"/>
       <c r="D354" s="6"/>
@@ -12308,7 +12305,7 @@
       <c r="S354" s="6"/>
       <c r="T354" s="6"/>
     </row>
-    <row r="355" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="355" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B355" s="5"/>
       <c r="C355" s="6"/>
       <c r="D355" s="6"/>
@@ -12329,7 +12326,7 @@
       <c r="S355" s="6"/>
       <c r="T355" s="6"/>
     </row>
-    <row r="356" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="356" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B356" s="5"/>
       <c r="C356" s="6"/>
       <c r="D356" s="6"/>
@@ -12350,7 +12347,7 @@
       <c r="S356" s="6"/>
       <c r="T356" s="6"/>
     </row>
-    <row r="357" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="357" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B357" s="5"/>
       <c r="C357" s="6"/>
       <c r="D357" s="6"/>
@@ -12371,7 +12368,7 @@
       <c r="S357" s="6"/>
       <c r="T357" s="6"/>
     </row>
-    <row r="358" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="358" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B358" s="5"/>
       <c r="C358" s="6"/>
       <c r="D358" s="6"/>
@@ -12392,7 +12389,7 @@
       <c r="S358" s="6"/>
       <c r="T358" s="6"/>
     </row>
-    <row r="359" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="359" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B359" s="5"/>
       <c r="C359" s="6"/>
       <c r="D359" s="6"/>
@@ -12413,7 +12410,7 @@
       <c r="S359" s="6"/>
       <c r="T359" s="6"/>
     </row>
-    <row r="360" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="360" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B360" s="5"/>
       <c r="C360" s="6"/>
       <c r="D360" s="6"/>
@@ -12434,7 +12431,7 @@
       <c r="S360" s="6"/>
       <c r="T360" s="6"/>
     </row>
-    <row r="361" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="361" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B361" s="5"/>
       <c r="C361" s="6"/>
       <c r="D361" s="6"/>
@@ -12455,7 +12452,7 @@
       <c r="S361" s="6"/>
       <c r="T361" s="6"/>
     </row>
-    <row r="362" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="362" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B362" s="5"/>
       <c r="C362" s="6"/>
       <c r="D362" s="6"/>
@@ -12476,7 +12473,7 @@
       <c r="S362" s="6"/>
       <c r="T362" s="6"/>
     </row>
-    <row r="363" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="363" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B363" s="5"/>
       <c r="C363" s="6"/>
       <c r="D363" s="6"/>
@@ -12497,7 +12494,7 @@
       <c r="S363" s="6"/>
       <c r="T363" s="6"/>
     </row>
-    <row r="364" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="364" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B364" s="5"/>
       <c r="C364" s="6"/>
       <c r="D364" s="6"/>
@@ -12518,7 +12515,7 @@
       <c r="S364" s="6"/>
       <c r="T364" s="6"/>
     </row>
-    <row r="365" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="365" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B365" s="5"/>
       <c r="C365" s="6"/>
       <c r="D365" s="6"/>
@@ -12539,7 +12536,7 @@
       <c r="S365" s="6"/>
       <c r="T365" s="6"/>
     </row>
-    <row r="366" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="366" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B366" s="5"/>
       <c r="C366" s="6"/>
       <c r="D366" s="6"/>
@@ -12560,7 +12557,7 @@
       <c r="S366" s="6"/>
       <c r="T366" s="6"/>
     </row>
-    <row r="367" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="367" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B367" s="5"/>
       <c r="C367" s="6"/>
       <c r="D367" s="6"/>
@@ -12581,7 +12578,7 @@
       <c r="S367" s="6"/>
       <c r="T367" s="6"/>
     </row>
-    <row r="368" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="368" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B368" s="5"/>
       <c r="C368" s="6"/>
       <c r="D368" s="6"/>
@@ -12602,7 +12599,7 @@
       <c r="S368" s="6"/>
       <c r="T368" s="6"/>
     </row>
-    <row r="369" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="369" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B369" s="5"/>
       <c r="C369" s="6"/>
       <c r="D369" s="6"/>
@@ -12623,7 +12620,7 @@
       <c r="S369" s="6"/>
       <c r="T369" s="6"/>
     </row>
-    <row r="370" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="370" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B370" s="5"/>
       <c r="C370" s="6"/>
       <c r="D370" s="6"/>
@@ -12644,7 +12641,7 @@
       <c r="S370" s="6"/>
       <c r="T370" s="6"/>
     </row>
-    <row r="371" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="371" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B371" s="5"/>
       <c r="C371" s="6"/>
       <c r="D371" s="6"/>
@@ -12665,7 +12662,7 @@
       <c r="S371" s="6"/>
       <c r="T371" s="6"/>
     </row>
-    <row r="372" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="372" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B372" s="5"/>
       <c r="C372" s="6"/>
       <c r="D372" s="6"/>
@@ -12686,7 +12683,7 @@
       <c r="S372" s="6"/>
       <c r="T372" s="6"/>
     </row>
-    <row r="373" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="373" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B373" s="5"/>
       <c r="C373" s="6"/>
       <c r="D373" s="6"/>
@@ -12707,7 +12704,7 @@
       <c r="S373" s="6"/>
       <c r="T373" s="6"/>
     </row>
-    <row r="374" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="374" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B374" s="5"/>
       <c r="C374" s="6"/>
       <c r="D374" s="6"/>
@@ -12728,7 +12725,7 @@
       <c r="S374" s="6"/>
       <c r="T374" s="6"/>
     </row>
-    <row r="375" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="375" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B375" s="5"/>
       <c r="C375" s="6"/>
       <c r="D375" s="6"/>
@@ -12749,7 +12746,7 @@
       <c r="S375" s="6"/>
       <c r="T375" s="6"/>
     </row>
-    <row r="376" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="376" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B376" s="5"/>
       <c r="C376" s="6"/>
       <c r="D376" s="6"/>
@@ -12770,7 +12767,7 @@
       <c r="S376" s="6"/>
       <c r="T376" s="6"/>
     </row>
-    <row r="377" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="377" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B377" s="5"/>
       <c r="C377" s="6"/>
       <c r="D377" s="6"/>
@@ -12791,7 +12788,7 @@
       <c r="S377" s="6"/>
       <c r="T377" s="6"/>
     </row>
-    <row r="378" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="378" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B378" s="5"/>
       <c r="C378" s="6"/>
       <c r="D378" s="6"/>
@@ -12812,7 +12809,7 @@
       <c r="S378" s="6"/>
       <c r="T378" s="6"/>
     </row>
-    <row r="379" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="379" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B379" s="5"/>
       <c r="C379" s="6"/>
       <c r="D379" s="6"/>
@@ -12833,7 +12830,7 @@
       <c r="S379" s="6"/>
       <c r="T379" s="6"/>
     </row>
-    <row r="380" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="380" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B380" s="5"/>
       <c r="C380" s="6"/>
       <c r="D380" s="6"/>
@@ -12854,7 +12851,7 @@
       <c r="S380" s="6"/>
       <c r="T380" s="6"/>
     </row>
-    <row r="381" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="381" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B381" s="5"/>
       <c r="C381" s="6"/>
       <c r="D381" s="6"/>
@@ -12875,7 +12872,7 @@
       <c r="S381" s="6"/>
       <c r="T381" s="6"/>
     </row>
-    <row r="382" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="382" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B382" s="5"/>
       <c r="C382" s="6"/>
       <c r="D382" s="6"/>
@@ -12896,7 +12893,7 @@
       <c r="S382" s="6"/>
       <c r="T382" s="6"/>
     </row>
-    <row r="383" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="383" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B383" s="5"/>
       <c r="C383" s="6"/>
       <c r="D383" s="6"/>
@@ -12917,7 +12914,7 @@
       <c r="S383" s="6"/>
       <c r="T383" s="6"/>
     </row>
-    <row r="384" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="384" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B384" s="5"/>
       <c r="C384" s="6"/>
       <c r="D384" s="6"/>
@@ -12938,7 +12935,7 @@
       <c r="S384" s="6"/>
       <c r="T384" s="6"/>
     </row>
-    <row r="385" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="385" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B385" s="5"/>
       <c r="C385" s="6"/>
       <c r="D385" s="6"/>
@@ -12959,7 +12956,7 @@
       <c r="S385" s="6"/>
       <c r="T385" s="6"/>
     </row>
-    <row r="386" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="386" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B386" s="5"/>
       <c r="C386" s="6"/>
       <c r="D386" s="6"/>
@@ -12980,7 +12977,7 @@
       <c r="S386" s="6"/>
       <c r="T386" s="6"/>
     </row>
-    <row r="387" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="387" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B387" s="5"/>
       <c r="C387" s="6"/>
       <c r="D387" s="6"/>
@@ -13001,7 +12998,7 @@
       <c r="S387" s="6"/>
       <c r="T387" s="6"/>
     </row>
-    <row r="388" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="388" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B388" s="5"/>
       <c r="C388" s="6"/>
       <c r="D388" s="6"/>
@@ -13022,7 +13019,7 @@
       <c r="S388" s="6"/>
       <c r="T388" s="6"/>
     </row>
-    <row r="389" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="389" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B389" s="5"/>
       <c r="C389" s="6"/>
       <c r="D389" s="6"/>
@@ -13043,7 +13040,7 @@
       <c r="S389" s="6"/>
       <c r="T389" s="6"/>
     </row>
-    <row r="390" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="390" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B390" s="5"/>
       <c r="C390" s="6"/>
       <c r="D390" s="6"/>
@@ -13064,7 +13061,7 @@
       <c r="S390" s="6"/>
       <c r="T390" s="6"/>
     </row>
-    <row r="391" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="391" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B391" s="5"/>
       <c r="C391" s="6"/>
       <c r="D391" s="6"/>
@@ -13085,7 +13082,7 @@
       <c r="S391" s="6"/>
       <c r="T391" s="6"/>
     </row>
-    <row r="392" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="392" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B392" s="5"/>
       <c r="C392" s="6"/>
       <c r="D392" s="6"/>
@@ -13106,7 +13103,7 @@
       <c r="S392" s="6"/>
       <c r="T392" s="6"/>
     </row>
-    <row r="393" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="393" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B393" s="5"/>
       <c r="C393" s="6"/>
       <c r="D393" s="6"/>
@@ -13127,7 +13124,7 @@
       <c r="S393" s="6"/>
       <c r="T393" s="6"/>
     </row>
-    <row r="394" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="394" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B394" s="5"/>
       <c r="C394" s="6"/>
       <c r="D394" s="6"/>
@@ -13148,7 +13145,7 @@
       <c r="S394" s="6"/>
       <c r="T394" s="6"/>
     </row>
-    <row r="395" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="395" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B395" s="5"/>
       <c r="C395" s="6"/>
       <c r="D395" s="6"/>
@@ -13169,7 +13166,7 @@
       <c r="S395" s="6"/>
       <c r="T395" s="6"/>
     </row>
-    <row r="396" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="396" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B396" s="5"/>
       <c r="C396" s="6"/>
       <c r="D396" s="6"/>
@@ -13201,13 +13198,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB4EBE6-9837-4894-ACAE-D390FA49216F}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>333</v>
       </c>
@@ -13245,7 +13242,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13283,121 +13280,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C3">
-        <v>9913</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F3" t="s">
-        <v>309</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s">
-        <v>177</v>
-      </c>
-      <c r="K3" t="s">
-        <v>162</v>
-      </c>
-      <c r="L3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C4">
-        <v>6237</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>218</v>
-      </c>
-      <c r="F4" t="s">
-        <v>308</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>207</v>
-      </c>
-      <c r="K4" t="s">
-        <v>368</v>
-      </c>
-      <c r="L4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>60</v>
-      </c>
-      <c r="B5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C5">
-        <v>6474</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>225</v>
-      </c>
-      <c r="F5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" t="s">
-        <v>209</v>
-      </c>
-      <c r="K5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>339</v>
       </c>
@@ -13414,253 +13297,115 @@
         <v>343</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="D16" t="s">
-        <v>218</v>
-      </c>
-      <c r="F16" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="D17" t="s">
-        <v>207</v>
-      </c>
-      <c r="F17" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="D18" t="s">
-        <v>218</v>
-      </c>
-      <c r="F18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="D19" t="s">
-        <v>207</v>
-      </c>
-      <c r="F19" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="D20" t="s">
-        <v>218</v>
-      </c>
-      <c r="F20" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="D21" t="s">
-        <v>207</v>
-      </c>
-      <c r="F21" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>354</v>
       </c>
-      <c r="C34" t="s">
-        <v>225</v>
-      </c>
-      <c r="E34" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C35" t="s">
-        <v>209</v>
-      </c>
-      <c r="E35" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>355</v>
       </c>
-      <c r="C36" t="s">
-        <v>225</v>
-      </c>
-      <c r="E36" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C37" t="s">
-        <v>209</v>
-      </c>
-      <c r="E37" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>356</v>
       </c>
-      <c r="C38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E38" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C39" t="s">
-        <v>209</v>
-      </c>
-      <c r="E39" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>360</v>
       </c>
-      <c r="B46" t="s">
-        <v>175</v>
-      </c>
-      <c r="D46" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B47" t="s">
-        <v>177</v>
-      </c>
-      <c r="D47" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>361</v>
       </c>
-      <c r="B48" t="s">
-        <v>175</v>
-      </c>
-      <c r="D48" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B49" t="s">
-        <v>177</v>
-      </c>
-      <c r="D49" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>362</v>
       </c>
-      <c r="B50" t="s">
-        <v>175</v>
-      </c>
-      <c r="D50" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B51" t="s">
-        <v>177</v>
-      </c>
-      <c r="D51" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>363</v>
       </c>
-      <c r="B52" t="s">
-        <v>175</v>
-      </c>
-      <c r="D52" t="s">
-        <v>175</v>
-      </c>
       <c r="F52" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B53" t="s">
-        <v>177</v>
-      </c>
-      <c r="D53" t="s">
-        <v>177</v>
-      </c>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F53" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>364</v>
       </c>
@@ -13668,22 +13413,22 @@
         <v>311</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F55" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>367</v>
       </c>
